--- a/fechas1.0.xlsx
+++ b/fechas1.0.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msurrego\Desktop\BTHVTC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICC\Documents\BthNotificacionVtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4D58D9-A914-4D69-9C2C-816A62641C57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BD" sheetId="1" r:id="rId1"/>
@@ -23,17 +24,23 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD!$A$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FILTROXMES!$A$1:$F$18</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="355">
   <si>
     <t>N°</t>
   </si>
@@ -1097,100 +1104,13 @@
     <t>John German</t>
   </si>
   <si>
-    <t>30/1/2020</t>
-  </si>
-  <si>
-    <t>jueves</t>
-  </si>
-  <si>
-    <t>enero</t>
-  </si>
-  <si>
-    <t>enero 30</t>
-  </si>
-  <si>
-    <t>29/1/2020</t>
-  </si>
-  <si>
-    <t>miércoles</t>
-  </si>
-  <si>
-    <t>enero 29</t>
-  </si>
-  <si>
-    <t>domingo</t>
-  </si>
-  <si>
-    <t>enero 05</t>
-  </si>
-  <si>
-    <t>enero 01</t>
-  </si>
-  <si>
-    <t>19/1/2020</t>
-  </si>
-  <si>
-    <t>enero 19</t>
-  </si>
-  <si>
-    <t>enero 08</t>
-  </si>
-  <si>
-    <t>27/1/2020</t>
-  </si>
-  <si>
-    <t>lunes</t>
-  </si>
-  <si>
-    <t>enero 27</t>
-  </si>
-  <si>
-    <t>18/1/2020</t>
-  </si>
-  <si>
-    <t>sábado</t>
-  </si>
-  <si>
-    <t>enero 18</t>
-  </si>
-  <si>
-    <t>viernes</t>
-  </si>
-  <si>
-    <t>enero 03</t>
-  </si>
-  <si>
-    <t>14/1/2020</t>
-  </si>
-  <si>
-    <t>martes</t>
-  </si>
-  <si>
-    <t>enero 14</t>
-  </si>
-  <si>
-    <t>15/1/2020</t>
-  </si>
-  <si>
-    <t>enero 15</t>
-  </si>
-  <si>
-    <t>enero 04</t>
-  </si>
-  <si>
-    <t>enero 02</t>
-  </si>
-  <si>
-    <t>enero 06</t>
-  </si>
-  <si>
-    <t>enero 07</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dddd"/>
     <numFmt numFmtId="165" formatCode="mmmm"/>
@@ -1429,9 +1349,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 13" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 6" xfId="2"/>
+    <cellStyle name="Normal 13" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 6" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1708,12 +1628,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J140"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.28515625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
@@ -6474,12 +6392,629 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J130"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="9"/>
+    <col min="9" max="9" width="13.85546875" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="15" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="J6" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="F7" s="12"/>
+      <c r="J7" s="9" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="3:6">
+      <c r="C36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="3:6">
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="3:6">
+      <c r="C38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+    </row>
+    <row r="39" spans="3:6">
+      <c r="C39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="C40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="C41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="3:6">
+      <c r="C43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="3:6">
+      <c r="C44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+    </row>
+    <row r="45" spans="3:6">
+      <c r="C45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="3:6">
+      <c r="C46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="3:6">
+      <c r="C47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="3:6">
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="3:6">
+      <c r="C49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="3:6">
+      <c r="C50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="3:6">
+      <c r="C51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="3:6">
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="3:6">
+      <c r="C53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="3:6">
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="3:6">
+      <c r="C55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="3:6">
+      <c r="C56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="3:6">
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+    </row>
+    <row r="58" spans="3:6">
+      <c r="C58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+    </row>
+    <row r="59" spans="3:6">
+      <c r="C59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="3:6">
+      <c r="C60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+    </row>
+    <row r="61" spans="3:6">
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="3:6">
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+    </row>
+    <row r="63" spans="3:6">
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="3:6">
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="3:6">
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" spans="3:6">
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="3:6">
+      <c r="C72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="3:6">
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="3:6">
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="3:6">
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="3:6">
+      <c r="C76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" spans="3:6">
+      <c r="C77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+    </row>
+    <row r="78" spans="3:6">
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" spans="3:6">
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="3:6">
+      <c r="C80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="3:6">
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+    </row>
+    <row r="84" spans="3:6">
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="C85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="C86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="C87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+    </row>
+    <row r="88" spans="3:6">
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="C89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+    </row>
+    <row r="90" spans="3:6">
+      <c r="C90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="C91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="C92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+    </row>
+    <row r="93" spans="3:6">
+      <c r="C93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+    </row>
+    <row r="95" spans="3:6">
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+    </row>
+    <row r="96" spans="3:6">
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+    </row>
+    <row r="97" spans="5:6">
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+    </row>
+    <row r="98" spans="5:6">
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+    </row>
+    <row r="99" spans="5:6">
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+    </row>
+    <row r="100" spans="5:6">
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+    </row>
+    <row r="101" spans="5:6">
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+    </row>
+    <row r="102" spans="5:6">
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+    </row>
+    <row r="103" spans="5:6">
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
+    </row>
+    <row r="104" spans="5:6">
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+    </row>
+    <row r="105" spans="5:6">
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+    </row>
+    <row r="106" spans="5:6">
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+    </row>
+    <row r="107" spans="5:6">
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
+    </row>
+    <row r="108" spans="5:6">
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+    </row>
+    <row r="109" spans="5:6">
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+    </row>
+    <row r="110" spans="5:6">
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
+    </row>
+    <row r="111" spans="5:6">
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
+    </row>
+    <row r="112" spans="5:6">
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
+    </row>
+    <row r="113" spans="5:6">
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
+    </row>
+    <row r="114" spans="5:6">
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
+    </row>
+    <row r="115" spans="5:6">
+      <c r="E115" s="12"/>
+      <c r="F115" s="12"/>
+    </row>
+    <row r="116" spans="5:6">
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+    </row>
+    <row r="117" spans="5:6">
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+    </row>
+    <row r="118" spans="5:6">
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+    </row>
+    <row r="119" spans="5:6">
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+    </row>
+    <row r="120" spans="5:6">
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+    </row>
+    <row r="121" spans="5:6">
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+    </row>
+    <row r="122" spans="5:6">
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+    </row>
+    <row r="123" spans="5:6">
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+    </row>
+    <row r="124" spans="5:6">
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+    </row>
+    <row r="125" spans="5:6">
+      <c r="E125" s="12"/>
+      <c r="F125" s="12"/>
+    </row>
+    <row r="126" spans="5:6">
+      <c r="E126" s="12"/>
+      <c r="F126" s="12"/>
+    </row>
+    <row r="127" spans="5:6">
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+    </row>
+    <row r="128" spans="5:6">
+      <c r="E128" s="12"/>
+      <c r="F128" s="12"/>
+    </row>
+    <row r="129" spans="5:6">
+      <c r="E129" s="12"/>
+      <c r="F129" s="12"/>
+    </row>
+    <row r="130" spans="5:6">
+      <c r="E130" s="12"/>
+      <c r="F130" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6520,515 +7055,132 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>357</v>
-      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9">
-        <v>6</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>360</v>
-      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="9">
-        <v>11</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="12">
-        <v>43952</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>362</v>
-      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9">
-        <v>32</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="12">
-        <v>43831</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>363</v>
-      </c>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="9">
-        <v>41</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>365</v>
-      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="9">
-        <v>47</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="12">
-        <v>44044</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>366</v>
-      </c>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="9">
-        <v>62</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>369</v>
-      </c>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="9">
-        <v>83</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="D9" s="12">
-        <v>44044</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>366</v>
-      </c>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9">
-        <v>85</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>372</v>
-      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="9">
-        <v>90</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D11" s="12">
-        <v>43891</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>374</v>
-      </c>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="9">
-        <v>93</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>377</v>
-      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="9">
-        <v>112</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>379</v>
-      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9">
-        <v>132</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="D14" s="12">
-        <v>43922</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>380</v>
-      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="9">
-        <v>133</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D15" s="12">
-        <v>43862</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>381</v>
-      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="9">
-        <v>134</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="12">
-        <v>43891</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="9">
-        <v>135</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="D17" s="12">
-        <v>43922</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="9">
-        <v>136</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="D18" s="12">
-        <v>43952</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="9">
-        <v>137</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="D19" s="12">
-        <v>43983</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="9">
-        <v>138</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="D20" s="12">
-        <v>44013</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="9">
-        <v>139</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="D21" s="12">
-        <v>44044</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="3:6">
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="3:6">
       <c r="C23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="3:6">
       <c r="C24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="3:6">
       <c r="C25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="3:6">
       <c r="C26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="3:6">
       <c r="C27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="3:6">
       <c r="C28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="3:6">
       <c r="C29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="3:6">
       <c r="C30" s="12"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="3:6">
       <c r="C31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="3:6">
       <c r="C32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -7463,17 +7615,20 @@
       <c r="F130" s="12"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F4">
+    <sortCondition ref="D2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7500,7 +7655,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -7514,27 +7669,8 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="9">
-        <v>138</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D2" s="12">
-        <v>44013</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>383</v>
-      </c>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:7">
       <c r="E3" s="12"/>
@@ -8093,20 +8229,16 @@
       <c r="F130" s="12"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F4">
-    <sortCondition ref="D2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD21"/>
+      <selection activeCell="A2" sqref="A2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8711,12 +8843,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9319,612 +9451,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G130"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="9"/>
-    <col min="9" max="9" width="13.85546875" style="9" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" s="15" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="F5" s="12"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="F11" s="12"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-    </row>
-    <row r="18" spans="3:6">
-      <c r="F18" s="12"/>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="C21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="C23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="C24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="C25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="3:6">
-      <c r="C26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="C27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-    </row>
-    <row r="28" spans="3:6">
-      <c r="C28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-    </row>
-    <row r="29" spans="3:6">
-      <c r="C29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="C30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="3:6">
-      <c r="C31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="3:6">
-      <c r="C32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="3:6">
-      <c r="C33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="3:6">
-      <c r="C34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="3:6">
-      <c r="C35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="3:6">
-      <c r="C36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="3:6">
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="3:6">
-      <c r="C38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="3:6">
-      <c r="C39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="3:6">
-      <c r="C40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="3:6">
-      <c r="C41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="3:6">
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="3:6">
-      <c r="C43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="3:6">
-      <c r="C44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-    </row>
-    <row r="45" spans="3:6">
-      <c r="C45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-    </row>
-    <row r="46" spans="3:6">
-      <c r="C46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-    </row>
-    <row r="47" spans="3:6">
-      <c r="C47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-    </row>
-    <row r="48" spans="3:6">
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="3:6">
-      <c r="C49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="3:6">
-      <c r="C50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="3:6">
-      <c r="C51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="3:6">
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="3:6">
-      <c r="C53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-    </row>
-    <row r="54" spans="3:6">
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-    </row>
-    <row r="55" spans="3:6">
-      <c r="C55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="C56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="3:6">
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="3:6">
-      <c r="C58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="3:6">
-      <c r="C59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="3:6">
-      <c r="C60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-    </row>
-    <row r="61" spans="3:6">
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
-    </row>
-    <row r="62" spans="3:6">
-      <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
-    </row>
-    <row r="63" spans="3:6">
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
-    </row>
-    <row r="64" spans="3:6">
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-    </row>
-    <row r="65" spans="3:6">
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-    </row>
-    <row r="66" spans="3:6">
-      <c r="E66" s="12"/>
-      <c r="F66" s="12"/>
-    </row>
-    <row r="67" spans="3:6">
-      <c r="C67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-    </row>
-    <row r="68" spans="3:6">
-      <c r="C68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
-    </row>
-    <row r="69" spans="3:6">
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-    </row>
-    <row r="70" spans="3:6">
-      <c r="C70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-    </row>
-    <row r="71" spans="3:6">
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="3:6">
-      <c r="C72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
-    </row>
-    <row r="73" spans="3:6">
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
-    </row>
-    <row r="74" spans="3:6">
-      <c r="E74" s="12"/>
-      <c r="F74" s="12"/>
-    </row>
-    <row r="75" spans="3:6">
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
-    </row>
-    <row r="76" spans="3:6">
-      <c r="C76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-    </row>
-    <row r="77" spans="3:6">
-      <c r="C77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-    </row>
-    <row r="78" spans="3:6">
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-    </row>
-    <row r="79" spans="3:6">
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-    </row>
-    <row r="80" spans="3:6">
-      <c r="C80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-    </row>
-    <row r="81" spans="3:6">
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-    </row>
-    <row r="82" spans="3:6">
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-    </row>
-    <row r="83" spans="3:6">
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-    </row>
-    <row r="84" spans="3:6">
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-    </row>
-    <row r="85" spans="3:6">
-      <c r="C85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-    </row>
-    <row r="86" spans="3:6">
-      <c r="C86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-    </row>
-    <row r="87" spans="3:6">
-      <c r="C87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-    </row>
-    <row r="88" spans="3:6">
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-    </row>
-    <row r="89" spans="3:6">
-      <c r="C89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-    </row>
-    <row r="90" spans="3:6">
-      <c r="C90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-    </row>
-    <row r="91" spans="3:6">
-      <c r="C91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-    </row>
-    <row r="92" spans="3:6">
-      <c r="C92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-    </row>
-    <row r="93" spans="3:6">
-      <c r="C93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-    </row>
-    <row r="94" spans="3:6">
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-    </row>
-    <row r="95" spans="3:6">
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-    </row>
-    <row r="96" spans="3:6">
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-    </row>
-    <row r="97" spans="5:6">
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-    </row>
-    <row r="98" spans="5:6">
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-    </row>
-    <row r="99" spans="5:6">
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-    </row>
-    <row r="100" spans="5:6">
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-    </row>
-    <row r="101" spans="5:6">
-      <c r="E101" s="12"/>
-      <c r="F101" s="12"/>
-    </row>
-    <row r="102" spans="5:6">
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-    </row>
-    <row r="103" spans="5:6">
-      <c r="E103" s="12"/>
-      <c r="F103" s="12"/>
-    </row>
-    <row r="104" spans="5:6">
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-    </row>
-    <row r="105" spans="5:6">
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-    </row>
-    <row r="106" spans="5:6">
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-    </row>
-    <row r="107" spans="5:6">
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-    </row>
-    <row r="108" spans="5:6">
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
-    </row>
-    <row r="109" spans="5:6">
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-    </row>
-    <row r="110" spans="5:6">
-      <c r="E110" s="12"/>
-      <c r="F110" s="12"/>
-    </row>
-    <row r="111" spans="5:6">
-      <c r="E111" s="12"/>
-      <c r="F111" s="12"/>
-    </row>
-    <row r="112" spans="5:6">
-      <c r="E112" s="12"/>
-      <c r="F112" s="12"/>
-    </row>
-    <row r="113" spans="5:6">
-      <c r="E113" s="12"/>
-      <c r="F113" s="12"/>
-    </row>
-    <row r="114" spans="5:6">
-      <c r="E114" s="12"/>
-      <c r="F114" s="12"/>
-    </row>
-    <row r="115" spans="5:6">
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
-    </row>
-    <row r="116" spans="5:6">
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-    </row>
-    <row r="117" spans="5:6">
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-    </row>
-    <row r="118" spans="5:6">
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-    </row>
-    <row r="119" spans="5:6">
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-    </row>
-    <row r="120" spans="5:6">
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-    </row>
-    <row r="121" spans="5:6">
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-    </row>
-    <row r="122" spans="5:6">
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-    </row>
-    <row r="123" spans="5:6">
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-    </row>
-    <row r="124" spans="5:6">
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-    </row>
-    <row r="125" spans="5:6">
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-    </row>
-    <row r="126" spans="5:6">
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
-    </row>
-    <row r="127" spans="5:6">
-      <c r="E127" s="12"/>
-      <c r="F127" s="12"/>
-    </row>
-    <row r="128" spans="5:6">
-      <c r="E128" s="12"/>
-      <c r="F128" s="12"/>
-    </row>
-    <row r="129" spans="5:6">
-      <c r="E129" s="12"/>
-      <c r="F129" s="12"/>
-    </row>
-    <row r="130" spans="5:6">
-      <c r="E130" s="12"/>
-      <c r="F130" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/fechas1.0.xlsx
+++ b/fechas1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SICC\Documents\BthNotificacionVtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2516A973-6656-4F31-8C68-B1C61A9ADA01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA80EDC-E008-4EB4-86F7-D22DF3F0A89A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="BTHACT" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD!$A$1:$I$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD!$A$1:$I$223</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FILTROXMES!$A$1:$F$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="347">
   <si>
     <t>NOMBRES</t>
   </si>
@@ -245,9 +245,6 @@
     <t>Cruz</t>
   </si>
   <si>
-    <t>Madrid</t>
-  </si>
-  <si>
     <t>Dajer</t>
   </si>
   <si>
@@ -350,30 +347,12 @@
     <t>Parra</t>
   </si>
   <si>
-    <t xml:space="preserve">Herrera </t>
-  </si>
-  <si>
-    <t>Castañeda</t>
-  </si>
-  <si>
-    <t>Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ladino </t>
-  </si>
-  <si>
     <t>Laverde</t>
   </si>
   <si>
     <t>Leguizamón</t>
   </si>
   <si>
-    <t xml:space="preserve">León </t>
-  </si>
-  <si>
-    <t>Álvarez</t>
-  </si>
-  <si>
     <t>Yonh Fredy</t>
   </si>
   <si>
@@ -401,9 +380,6 @@
     <t>Mendieta</t>
   </si>
   <si>
-    <t>Perdomo</t>
-  </si>
-  <si>
     <t>Mendoza</t>
   </si>
   <si>
@@ -452,9 +428,6 @@
     <t>Carmona</t>
   </si>
   <si>
-    <t>Galy Gardenia</t>
-  </si>
-  <si>
     <t>Osuna</t>
   </si>
   <si>
@@ -485,15 +458,9 @@
     <t>Téllez</t>
   </si>
   <si>
-    <t>Josa</t>
-  </si>
-  <si>
     <t>Peralta</t>
   </si>
   <si>
-    <t>Bryan Alexis</t>
-  </si>
-  <si>
     <t>Herrera</t>
   </si>
   <si>
@@ -671,9 +638,6 @@
     <t>Yelitza del mar</t>
   </si>
   <si>
-    <t>Carlos Sebastián</t>
-  </si>
-  <si>
     <t>Jair Roberto</t>
   </si>
   <si>
@@ -689,9 +653,6 @@
     <t>Toledo</t>
   </si>
   <si>
-    <t xml:space="preserve">Nieto </t>
-  </si>
-  <si>
     <t>Germán Eduardo</t>
   </si>
   <si>
@@ -905,21 +866,12 @@
     <t>Miguel Ángel</t>
   </si>
   <si>
-    <t>Bertha Sofía</t>
-  </si>
-  <si>
-    <t>Jonnathan</t>
-  </si>
-  <si>
     <t>Diana Rocío</t>
   </si>
   <si>
     <t>Daniel</t>
   </si>
   <si>
-    <t>Diego Andrés</t>
-  </si>
-  <si>
     <t>Macías</t>
   </si>
   <si>
@@ -932,15 +884,9 @@
     <t>Raúl Fernando</t>
   </si>
   <si>
-    <t>Hernán Felipe</t>
-  </si>
-  <si>
     <t>John Jairo</t>
   </si>
   <si>
-    <t>Jonathan Dixon</t>
-  </si>
-  <si>
     <t>Oscar Yovanny</t>
   </si>
   <si>
@@ -1034,12 +980,6 @@
     <t>Pedreros</t>
   </si>
   <si>
-    <t>Edwin Fernnedy</t>
-  </si>
-  <si>
-    <t>Salguero</t>
-  </si>
-  <si>
     <t>Porras</t>
   </si>
   <si>
@@ -1116,6 +1056,30 @@
   </si>
   <si>
     <t xml:space="preserve">Brayan </t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Ávila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean </t>
+  </si>
+  <si>
+    <t>Adames</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Prada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galy </t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1384,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1544,10 +1508,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1565,9 +1525,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1909,11 +1866,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J232"/>
+  <dimension ref="A1:J223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.28515625" defaultRowHeight="27.75" customHeight="1"/>
   <cols>
@@ -1930,7 +1885,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="53.25" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1948,13 +1903,13 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1">
@@ -2039,7 +1994,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="F4" s="2" t="str">
         <f ca="1">DAY(E4) &amp; "/" &amp;MONTH(E4)&amp;"/"&amp;YEAR(TODAY())</f>
@@ -2064,7 +2019,7 @@
         <v>1010242374</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>14</v>
@@ -2110,19 +2065,19 @@
         <v>23772</v>
       </c>
       <c r="F6" s="2" t="str">
-        <f t="shared" ref="F6:F65" ca="1" si="0">DAY(E6) &amp; "/" &amp;MONTH(E6)&amp;"/"&amp;YEAR(TODAY())</f>
+        <f t="shared" ref="F6:F60" ca="1" si="0">DAY(E6) &amp; "/" &amp;MONTH(E6)&amp;"/"&amp;YEAR(TODAY())</f>
         <v>30/1/2020</v>
       </c>
       <c r="G6" s="6" t="str">
-        <f t="shared" ref="G6:G65" ca="1" si="1">TEXT(F6,"dddd")</f>
+        <f t="shared" ref="G6:G60" ca="1" si="1">TEXT(F6,"dddd")</f>
         <v>jueves</v>
       </c>
       <c r="H6" s="7" t="str">
-        <f t="shared" ref="H6:H65" ca="1" si="2">TEXT(F6,"mmmm")</f>
+        <f t="shared" ref="H6:H60" ca="1" si="2">TEXT(F6,"mmmm")</f>
         <v>enero</v>
       </c>
       <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6:I65" ca="1" si="3">TEXT(F6,"MMMM"&amp;" "&amp;"DD")</f>
+        <f t="shared" ref="I6:I60" ca="1" si="3">TEXT(F6,"MMMM"&amp;" "&amp;"DD")</f>
         <v>enero 30</v>
       </c>
       <c r="J6" s="14"/>
@@ -2141,7 +2096,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="F7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2166,13 +2121,13 @@
         <v>1022387990</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C8" s="26" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E8" s="28">
         <v>34292</v>
@@ -2240,7 +2195,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="E10" s="31">
         <v>30174</v>
@@ -2302,7 +2257,7 @@
         <v>39671958</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C12" s="26" t="s">
         <v>31</v>
@@ -2311,7 +2266,7 @@
         <v>32</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F12" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2336,7 +2291,7 @@
         <v>1026278076</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C13" s="26" t="s">
         <v>33</v>
@@ -2376,7 +2331,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E14" s="28">
         <v>33428</v>
@@ -2404,7 +2359,7 @@
         <v>1013587015</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>37</v>
@@ -2472,7 +2427,7 @@
         <v>1030558087</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>41</v>
@@ -2481,7 +2436,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F17" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2515,7 +2470,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F18" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2549,7 +2504,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F19" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2608,7 +2563,7 @@
         <v>79760127</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>49</v>
@@ -2617,7 +2572,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F21" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2676,7 +2631,7 @@
         <v>1049619775</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>51</v>
@@ -2710,7 +2665,7 @@
         <v>312348</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>51</v>
@@ -2719,7 +2674,7 @@
         <v>54</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="F24" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2756,7 +2711,7 @@
         <v>33763</v>
       </c>
       <c r="F25" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">DAY(E25) &amp; "/" &amp;MONTH(E25)&amp;"/"&amp;YEAR(TODAY())</f>
         <v>8/6/2020</v>
       </c>
       <c r="G25" s="6" t="str">
@@ -2778,7 +2733,7 @@
         <v>418783</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>58</v>
@@ -2787,7 +2742,7 @@
         <v>59</v>
       </c>
       <c r="E26" s="37" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="F26" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -2846,7 +2801,7 @@
         <v>1110491823</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>63</v>
@@ -2911,61 +2866,61 @@
     </row>
     <row r="30" spans="1:10" ht="27.75" customHeight="1">
       <c r="A30" s="20">
-        <v>1026565845</v>
+        <v>53164528</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="39">
-        <v>33239</v>
+        <v>69</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>221</v>
       </c>
       <c r="F30" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1/1/2020</v>
+        <v>24/2/2020</v>
       </c>
       <c r="G30" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>miércoles</v>
+        <v>lunes</v>
       </c>
       <c r="H30" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>enero</v>
+        <v>febrero</v>
       </c>
       <c r="I30" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>enero 01</v>
+        <v>febrero 24</v>
       </c>
       <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" ht="27.75" customHeight="1">
       <c r="A31" s="20">
-        <v>53164528</v>
+        <v>80843126</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>277</v>
+        <v>70</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="F31" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>24/2/2020</v>
+        <v>6/2/2020</v>
       </c>
       <c r="G31" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>lunes</v>
+        <v>jueves</v>
       </c>
       <c r="H31" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2973,458 +2928,458 @@
       </c>
       <c r="I31" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>febrero 24</v>
+        <v>febrero 06</v>
       </c>
       <c r="J31" s="14"/>
     </row>
     <row r="32" spans="1:10" ht="27.75" customHeight="1">
       <c r="A32" s="20">
-        <v>80843126</v>
+        <v>1085317349</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>71</v>
+        <v>266</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="E32" s="32" t="s">
-        <v>235</v>
+        <v>73</v>
+      </c>
+      <c r="E32" s="39">
+        <v>34644</v>
       </c>
       <c r="F32" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6/2/2020</v>
+        <v>6/11/2020</v>
       </c>
       <c r="G32" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>jueves</v>
+        <v>viernes</v>
       </c>
       <c r="H32" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>febrero</v>
+        <v>noviembre</v>
       </c>
       <c r="I32" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>febrero 06</v>
+        <v>noviembre 06</v>
       </c>
       <c r="J32" s="14"/>
     </row>
     <row r="33" spans="1:10" ht="27.75" customHeight="1">
       <c r="A33" s="20">
-        <v>1085317349</v>
+        <v>1024530597</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>279</v>
+        <v>74</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="40">
-        <v>34644</v>
+        <v>76</v>
+      </c>
+      <c r="E33" s="39">
+        <v>33782</v>
       </c>
       <c r="F33" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6/11/2020</v>
+        <v>27/6/2020</v>
       </c>
       <c r="G33" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>viernes</v>
+        <v>sábado</v>
       </c>
       <c r="H33" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>noviembre</v>
+        <v>junio</v>
       </c>
       <c r="I33" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>noviembre 06</v>
+        <v>junio 27</v>
       </c>
       <c r="J33" s="14"/>
     </row>
     <row r="34" spans="1:10" ht="27.75" customHeight="1">
       <c r="A34" s="20">
-        <v>1024530597</v>
+        <v>562228</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>75</v>
+        <v>325</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" s="40">
-        <v>33812</v>
+        <v>13</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>223</v>
       </c>
       <c r="F34" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>27/7/2020</v>
+        <v>3/4/2020</v>
       </c>
       <c r="G34" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>lunes</v>
+        <v>viernes</v>
       </c>
       <c r="H34" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>julio</v>
+        <v>abril</v>
       </c>
       <c r="I34" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>julio 27</v>
+        <v>abril 03</v>
       </c>
       <c r="J34" s="14"/>
     </row>
     <row r="35" spans="1:10" ht="27.75" customHeight="1">
       <c r="A35" s="20">
-        <v>562228</v>
+        <v>1069174579</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>78</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>13</v>
+        <v>267</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="F35" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3/4/2020</v>
+        <v>24/11/2020</v>
       </c>
       <c r="G35" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>viernes</v>
+        <v>martes</v>
       </c>
       <c r="H35" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>abril</v>
+        <v>noviembre</v>
       </c>
       <c r="I35" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>abril 03</v>
+        <v>noviembre 24</v>
       </c>
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A36" s="20">
-        <v>1069174579</v>
+      <c r="A36" s="19">
+        <v>1032443122</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>281</v>
+        <v>121</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>237</v>
+        <v>80</v>
+      </c>
+      <c r="E36" s="6">
+        <v>33351</v>
       </c>
       <c r="F36" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>24/11/2020</v>
+        <v>23/4/2020</v>
       </c>
       <c r="G36" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>martes</v>
+        <v>jueves</v>
       </c>
       <c r="H36" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>noviembre</v>
+        <v>abril</v>
       </c>
       <c r="I36" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>noviembre 24</v>
+        <v>abril 23</v>
       </c>
       <c r="J36" s="14"/>
     </row>
     <row r="37" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A37" s="19">
-        <v>1032443122</v>
+      <c r="A37" s="20">
+        <v>1094925320</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="6">
-        <v>33351</v>
+        <v>83</v>
+      </c>
+      <c r="E37" s="39">
+        <v>33622</v>
       </c>
       <c r="F37" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>23/4/2020</v>
+        <v>19/1/2020</v>
       </c>
       <c r="G37" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>jueves</v>
+        <v>domingo</v>
       </c>
       <c r="H37" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>abril</v>
+        <v>enero</v>
       </c>
       <c r="I37" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>abril 23</v>
+        <v>enero 19</v>
       </c>
       <c r="J37" s="14"/>
     </row>
     <row r="38" spans="1:10" ht="27.75" customHeight="1">
       <c r="A38" s="20">
-        <v>1094925320</v>
+        <v>28054353</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>82</v>
+        <v>269</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="E38" s="40">
-        <v>33622</v>
+      <c r="E38" s="40" t="s">
+        <v>225</v>
       </c>
       <c r="F38" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>19/1/2020</v>
+        <v>11/9/2020</v>
       </c>
       <c r="G38" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>domingo</v>
+        <v>viernes</v>
       </c>
       <c r="H38" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>enero</v>
+        <v>septiembre</v>
       </c>
       <c r="I38" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>enero 19</v>
+        <v>septiembre 11</v>
       </c>
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A39" s="20">
-        <v>28054353</v>
+      <c r="A39" s="22">
+        <v>41618415</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>282</v>
+        <v>85</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>238</v>
+        <v>270</v>
+      </c>
+      <c r="E39" s="2">
+        <v>19773</v>
       </c>
       <c r="F39" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11/9/2020</v>
+        <v>18/2/2020</v>
       </c>
       <c r="G39" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>viernes</v>
+        <v>martes</v>
       </c>
       <c r="H39" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>septiembre</v>
+        <v>febrero</v>
       </c>
       <c r="I39" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>septiembre 11</v>
+        <v>febrero 18</v>
       </c>
       <c r="J39" s="14"/>
     </row>
     <row r="40" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A40" s="22">
-        <v>41618415</v>
+      <c r="A40" s="19">
+        <v>16078131</v>
       </c>
       <c r="B40" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="26" t="s">
-        <v>87</v>
-      </c>
       <c r="D40" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="E40" s="2">
-        <v>19773</v>
+        <v>88</v>
+      </c>
+      <c r="E40" s="28">
+        <v>30621</v>
       </c>
       <c r="F40" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>18/2/2020</v>
+        <v>1/11/2020</v>
       </c>
       <c r="G40" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>martes</v>
+        <v>domingo</v>
       </c>
       <c r="H40" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>febrero</v>
+        <v>noviembre</v>
       </c>
       <c r="I40" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>febrero 18</v>
+        <v>noviembre 01</v>
       </c>
       <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A41" s="19">
-        <v>16078131</v>
+      <c r="A41" s="21">
+        <v>79542180</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="E41" s="28">
-        <v>30621</v>
+        <v>201</v>
+      </c>
+      <c r="E41" s="6">
+        <v>25741</v>
       </c>
       <c r="F41" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>1/11/2020</v>
+        <v>22/6/2020</v>
       </c>
       <c r="G41" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>domingo</v>
+        <v>lunes</v>
       </c>
       <c r="H41" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>noviembre</v>
+        <v>junio</v>
       </c>
       <c r="I41" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>noviembre 01</v>
+        <v>junio 22</v>
       </c>
       <c r="J41" s="14"/>
     </row>
     <row r="42" spans="1:10" ht="27.75" customHeight="1">
       <c r="A42" s="21">
-        <v>79542180</v>
+        <v>1022425335</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E42" s="6">
-        <v>25741</v>
+        <v>35514</v>
       </c>
       <c r="F42" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>22/6/2020</v>
+        <v>25/3/2020</v>
       </c>
       <c r="G42" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>lunes</v>
+        <v>miércoles</v>
       </c>
       <c r="H42" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>junio</v>
+        <v>marzo</v>
       </c>
       <c r="I42" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>junio 22</v>
+        <v>marzo 25</v>
       </c>
       <c r="J42" s="14"/>
     </row>
     <row r="43" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A43" s="21">
-        <v>1022425335</v>
+      <c r="A43" s="19">
+        <v>1069751501</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>284</v>
+        <v>327</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="E43" s="6">
-        <v>35514</v>
+        <v>34823</v>
       </c>
       <c r="F43" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>25/3/2020</v>
+        <v>4/5/2020</v>
       </c>
       <c r="G43" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>miércoles</v>
+        <v>lunes</v>
       </c>
       <c r="H43" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>marzo</v>
+        <v>mayo</v>
       </c>
       <c r="I43" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>marzo 25</v>
+        <v>mayo 04</v>
       </c>
       <c r="J43" s="14"/>
     </row>
     <row r="44" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A44" s="19">
-        <v>1069751501</v>
+      <c r="A44" s="20">
+        <v>2969037</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>347</v>
+        <v>272</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>62</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" s="6">
-        <v>34823</v>
+        <v>7</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>226</v>
       </c>
       <c r="F44" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4/5/2020</v>
+        <v>8/1/2020</v>
       </c>
       <c r="G44" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>lunes</v>
+        <v>miércoles</v>
       </c>
       <c r="H44" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mayo</v>
+        <v>enero</v>
       </c>
       <c r="I44" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>mayo 04</v>
+        <v>enero 08</v>
       </c>
       <c r="J44" s="14"/>
     </row>
     <row r="45" spans="1:10" ht="27.75" customHeight="1">
       <c r="A45" s="20">
-        <v>2969037</v>
+        <v>52665189</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>62</v>
@@ -3433,79 +3388,79 @@
         <v>7</v>
       </c>
       <c r="E45" s="34" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="F45" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8/1/2020</v>
+        <v>11/12/2020</v>
       </c>
       <c r="G45" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>miércoles</v>
+        <v>viernes</v>
       </c>
       <c r="H45" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>enero</v>
+        <v>diciembre</v>
       </c>
       <c r="I45" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>enero 08</v>
+        <v>diciembre 11</v>
       </c>
       <c r="J45" s="14"/>
     </row>
     <row r="46" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A46" s="20">
-        <v>52665189</v>
+      <c r="A46" s="22">
+        <v>1022418263</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>62</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>240</v>
+        <v>92</v>
+      </c>
+      <c r="E46" s="2">
+        <v>35262</v>
       </c>
       <c r="F46" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11/12/2020</v>
+        <v>16/7/2020</v>
       </c>
       <c r="G46" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>viernes</v>
+        <v>jueves</v>
       </c>
       <c r="H46" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>diciembre</v>
+        <v>julio</v>
       </c>
       <c r="I46" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>diciembre 11</v>
+        <v>julio 16</v>
       </c>
       <c r="J46" s="14"/>
     </row>
     <row r="47" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A47" s="22">
-        <v>1022418263</v>
+      <c r="A47" s="19">
+        <v>1030696687</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>92</v>
+        <v>338</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E47" s="2">
-        <v>35262</v>
+        <v>124</v>
+      </c>
+      <c r="E47" s="6">
+        <v>36308</v>
       </c>
       <c r="F47" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>16/7/2020</v>
+        <v>28/5/2020</v>
       </c>
       <c r="G47" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3513,781 +3468,779 @@
       </c>
       <c r="H47" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>julio</v>
+        <v>mayo</v>
       </c>
       <c r="I47" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>julio 16</v>
+        <v>mayo 28</v>
       </c>
       <c r="J47" s="14"/>
     </row>
     <row r="48" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A48" s="19">
-        <v>1030696687</v>
+      <c r="A48" s="22">
+        <v>1072699501</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>358</v>
+        <v>274</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E48" s="6">
-        <v>36308</v>
+        <v>52</v>
+      </c>
+      <c r="E48" s="41">
+        <v>34147</v>
       </c>
       <c r="F48" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>28/5/2020</v>
+        <v>27/6/2020</v>
       </c>
       <c r="G48" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>jueves</v>
+        <v>sábado</v>
       </c>
       <c r="H48" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>mayo</v>
+        <v>junio</v>
       </c>
       <c r="I48" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>mayo 28</v>
+        <v>junio 27</v>
       </c>
       <c r="J48" s="14"/>
     </row>
     <row r="49" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A49" s="22">
-        <v>1072699501</v>
+      <c r="A49" s="19">
+        <v>1034315554</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>287</v>
+        <v>94</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="42">
-        <v>34147</v>
+        <v>96</v>
+      </c>
+      <c r="E49" s="6">
+        <v>32065</v>
       </c>
       <c r="F49" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>27/6/2020</v>
+        <v>15/10/2020</v>
       </c>
       <c r="G49" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>sábado</v>
+        <v>jueves</v>
       </c>
       <c r="H49" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>junio</v>
+        <v>octubre</v>
       </c>
       <c r="I49" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>junio 27</v>
+        <v>octubre 15</v>
       </c>
       <c r="J49" s="14"/>
     </row>
     <row r="50" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A50" s="19">
-        <v>1034315554</v>
+      <c r="A50" s="21">
+        <v>1026278926</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="6">
-        <v>32065</v>
+        <v>98</v>
+      </c>
+      <c r="E50" s="42">
+        <v>33706</v>
       </c>
       <c r="F50" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15/10/2020</v>
+        <v>12/4/2020</v>
       </c>
       <c r="G50" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>jueves</v>
+        <v>domingo</v>
       </c>
       <c r="H50" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>octubre</v>
+        <v>abril</v>
       </c>
       <c r="I50" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>octubre 15</v>
+        <v>abril 12</v>
       </c>
       <c r="J50" s="14"/>
     </row>
     <row r="51" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A51" s="21">
-        <v>1026278926</v>
+      <c r="A51" s="19">
+        <v>1026292951</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="C51" s="26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="43">
-        <v>33706</v>
+        <v>101</v>
+      </c>
+      <c r="E51" s="6">
+        <v>35002</v>
       </c>
       <c r="F51" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>12/4/2020</v>
+        <v>30/10/2020</v>
       </c>
       <c r="G51" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>domingo</v>
+        <v>viernes</v>
       </c>
       <c r="H51" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>abril</v>
+        <v>octubre</v>
       </c>
       <c r="I51" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>abril 12</v>
+        <v>octubre 30</v>
       </c>
       <c r="J51" s="14"/>
     </row>
     <row r="52" spans="1:10" ht="27.75" customHeight="1">
       <c r="A52" s="19">
-        <v>1026292951</v>
+        <v>52544549</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>100</v>
+        <v>275</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="E52" s="6">
-        <v>35002</v>
+        <v>29769</v>
       </c>
       <c r="F52" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>30/10/2020</v>
+        <v>2/7/2020</v>
       </c>
       <c r="G52" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>viernes</v>
+        <v>jueves</v>
       </c>
       <c r="H52" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>octubre</v>
+        <v>julio</v>
       </c>
       <c r="I52" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>octubre 30</v>
+        <v>julio 02</v>
       </c>
       <c r="J52" s="14"/>
     </row>
     <row r="53" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A53" s="21">
-        <v>1032470922</v>
+      <c r="A53" s="20">
+        <v>80022988</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>103</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E53" s="43">
-        <v>34809</v>
+        <v>32</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>228</v>
       </c>
       <c r="F53" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>20/4/2020</v>
+        <v>11/9/2020</v>
       </c>
       <c r="G53" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>lunes</v>
+        <v>viernes</v>
       </c>
       <c r="H53" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>abril</v>
+        <v>septiembre</v>
       </c>
       <c r="I53" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>abril 20</v>
+        <v>septiembre 11</v>
       </c>
       <c r="J53" s="14"/>
     </row>
     <row r="54" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A54" s="19">
-        <v>34566400</v>
+      <c r="A54" s="20">
+        <v>1016063097</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>288</v>
+        <v>104</v>
       </c>
       <c r="C54" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D54" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E54" s="6">
-        <v>27069</v>
+      <c r="E54" s="34" t="s">
+        <v>229</v>
       </c>
       <c r="F54" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9/2/2020</v>
+        <v>27/1/2020</v>
       </c>
       <c r="G54" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>domingo</v>
+        <v>lunes</v>
       </c>
       <c r="H54" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>febrero</v>
+        <v>enero</v>
       </c>
       <c r="I54" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>febrero 09</v>
+        <v>enero 27</v>
       </c>
       <c r="J54" s="14"/>
     </row>
     <row r="55" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A55" s="19">
-        <v>1023886319</v>
+      <c r="A55" s="21">
+        <v>1006182352</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>289</v>
+        <v>106</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="6">
-        <v>32706</v>
+        <v>100</v>
+      </c>
+      <c r="E55" s="44">
+        <v>36607</v>
       </c>
       <c r="F55" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>17/7/2020</v>
+        <v>22/3/2020</v>
       </c>
       <c r="G55" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>viernes</v>
+        <v>domingo</v>
       </c>
       <c r="H55" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>julio</v>
+        <v>marzo</v>
       </c>
       <c r="I55" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>julio 17</v>
+        <v>marzo 22</v>
       </c>
       <c r="J55" s="14"/>
     </row>
     <row r="56" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A56" s="19">
-        <v>52544549</v>
+      <c r="A56" s="21">
+        <v>79793673</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>290</v>
+        <v>108</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="E56" s="6">
-        <v>29769</v>
+        <v>28460</v>
       </c>
       <c r="F56" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2/7/2020</v>
+        <v>1/12/2020</v>
       </c>
       <c r="G56" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>jueves</v>
+        <v>martes</v>
       </c>
       <c r="H56" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>julio</v>
+        <v>diciembre</v>
       </c>
       <c r="I56" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>julio 02</v>
+        <v>diciembre 01</v>
       </c>
       <c r="J56" s="14"/>
     </row>
     <row r="57" spans="1:10" ht="27.75" customHeight="1">
       <c r="A57" s="20">
-        <v>80022988</v>
+        <v>1015430460</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>291</v>
+        <v>111</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="44" t="s">
-        <v>241</v>
+        <v>112</v>
+      </c>
+      <c r="E57" s="39">
+        <v>33691</v>
       </c>
       <c r="F57" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>11/9/2020</v>
+        <v>28/3/2020</v>
       </c>
       <c r="G57" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>viernes</v>
+        <v>sábado</v>
       </c>
       <c r="H57" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>septiembre</v>
+        <v>marzo</v>
       </c>
       <c r="I57" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>septiembre 11</v>
+        <v>marzo 28</v>
       </c>
       <c r="J57" s="14"/>
     </row>
     <row r="58" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A58" s="21">
-        <v>1000061902</v>
+      <c r="A58" s="19">
+        <v>1015423170</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E58" s="45">
-        <v>36822</v>
+        <v>114</v>
+      </c>
+      <c r="E58" s="28">
+        <v>33372</v>
       </c>
       <c r="F58" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>23/10/2020</v>
+        <v>14/5/2020</v>
       </c>
       <c r="G58" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>viernes</v>
+        <v>jueves</v>
       </c>
       <c r="H58" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>octubre</v>
+        <v>mayo</v>
       </c>
       <c r="I58" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>octubre 23</v>
+        <v>mayo 14</v>
       </c>
       <c r="J58" s="14"/>
     </row>
     <row r="59" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A59" s="20">
-        <v>1016063097</v>
+      <c r="A59" s="19">
+        <v>80084989</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C59" s="26" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>242</v>
+        <v>116</v>
+      </c>
+      <c r="E59" s="44">
+        <v>29253</v>
       </c>
       <c r="F59" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>27/1/2020</v>
+        <v>2/2/2020</v>
       </c>
       <c r="G59" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>lunes</v>
+        <v>domingo</v>
       </c>
       <c r="H59" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>enero</v>
+        <v>febrero</v>
       </c>
       <c r="I59" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>enero 27</v>
+        <v>febrero 02</v>
       </c>
       <c r="J59" s="14"/>
     </row>
     <row r="60" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A60" s="21">
-        <v>1006182352</v>
+      <c r="A60" s="20">
+        <v>1022351548</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E60" s="46">
-        <v>36607</v>
+        <v>119</v>
+      </c>
+      <c r="E60" s="45">
+        <v>32361</v>
       </c>
       <c r="F60" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>22/3/2020</v>
+        <v>6/8/2020</v>
       </c>
       <c r="G60" s="6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>domingo</v>
+        <v>jueves</v>
       </c>
       <c r="H60" s="7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>marzo</v>
+        <v>agosto</v>
       </c>
       <c r="I60" s="13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>marzo 22</v>
+        <v>agosto 06</v>
       </c>
       <c r="J60" s="14"/>
     </row>
     <row r="61" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A61" s="21">
-        <v>79793673</v>
+      <c r="A61" s="20">
+        <v>1019007962</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>115</v>
+        <v>279</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="6">
-        <v>28460</v>
+        <v>49</v>
+      </c>
+      <c r="E61" s="34" t="s">
+        <v>230</v>
       </c>
       <c r="F61" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>1/12/2020</v>
+        <f t="shared" ref="F61:F115" ca="1" si="4">DAY(E61) &amp; "/" &amp;MONTH(E61)&amp;"/"&amp;YEAR(TODAY())</f>
+        <v>10/8/2020</v>
       </c>
       <c r="G61" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>martes</v>
+        <f t="shared" ref="G61:G115" ca="1" si="5">TEXT(F61,"dddd")</f>
+        <v>lunes</v>
       </c>
       <c r="H61" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="H61:H115" ca="1" si="6">TEXT(F61,"mmmm")</f>
+        <v>agosto</v>
+      </c>
+      <c r="I61" s="13" t="str">
+        <f t="shared" ref="I61:I115" ca="1" si="7">TEXT(F61,"MMMM"&amp;" "&amp;"DD")</f>
+        <v>agosto 10</v>
+      </c>
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" spans="1:10" ht="27.75" customHeight="1">
+      <c r="A62" s="19">
+        <v>1030603708</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E62" s="6">
+        <v>33603</v>
+      </c>
+      <c r="F62" s="2" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>31/12/2020</v>
+      </c>
+      <c r="G62" s="6" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>jueves</v>
+      </c>
+      <c r="H62" s="7" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>diciembre</v>
       </c>
-      <c r="I61" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>diciembre 01</v>
-      </c>
-      <c r="J61" s="14"/>
-    </row>
-    <row r="62" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A62" s="20">
-        <v>1015430460</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E62" s="40">
-        <v>33691</v>
-      </c>
-      <c r="F62" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>28/3/2020</v>
-      </c>
-      <c r="G62" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>sábado</v>
-      </c>
-      <c r="H62" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>marzo</v>
-      </c>
       <c r="I62" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>marzo 28</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>diciembre 31</v>
       </c>
       <c r="J62" s="14"/>
     </row>
     <row r="63" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A63" s="19">
-        <v>1015423170</v>
+      <c r="A63" s="20">
+        <v>80159697</v>
       </c>
       <c r="B63" s="26" t="s">
-        <v>357</v>
+        <v>280</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E63" s="28">
-        <v>33372</v>
+        <v>124</v>
+      </c>
+      <c r="E63" s="34" t="s">
+        <v>231</v>
       </c>
       <c r="F63" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>14/5/2020</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>28/6/2020</v>
       </c>
       <c r="G63" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>jueves</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>domingo</v>
       </c>
       <c r="H63" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>mayo</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>junio</v>
       </c>
       <c r="I63" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>mayo 14</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>junio 28</v>
       </c>
       <c r="J63" s="14"/>
     </row>
     <row r="64" spans="1:10" ht="27.75" customHeight="1">
       <c r="A64" s="19">
-        <v>80084989</v>
+        <v>1020732976</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>123</v>
+        <v>328</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>294</v>
+        <v>125</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E64" s="46">
-        <v>29253</v>
+        <v>126</v>
+      </c>
+      <c r="E64" s="6">
+        <v>32291</v>
       </c>
       <c r="F64" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>2/2/2020</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>28/5/2020</v>
       </c>
       <c r="G64" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>domingo</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>jueves</v>
       </c>
       <c r="H64" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>febrero</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>mayo</v>
       </c>
       <c r="I64" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>febrero 02</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>mayo 28</v>
       </c>
       <c r="J64" s="14"/>
     </row>
     <row r="65" spans="1:10" ht="27.75" customHeight="1">
       <c r="A65" s="20">
-        <v>1022351548</v>
+        <v>81715564</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E65" s="47">
-        <v>32361</v>
+        <v>128</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>232</v>
       </c>
       <c r="F65" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>6/8/2020</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12/2/2020</v>
       </c>
       <c r="G65" s="6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>jueves</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>miércoles</v>
       </c>
       <c r="H65" s="7" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>agosto</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>febrero</v>
       </c>
       <c r="I65" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>agosto 06</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>febrero 12</v>
       </c>
       <c r="J65" s="14"/>
     </row>
     <row r="66" spans="1:10" ht="27.75" customHeight="1">
       <c r="A66" s="20">
-        <v>1019007962</v>
+        <v>797779</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>295</v>
+        <v>346</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D66" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E66" s="34" t="s">
-        <v>243</v>
+        <v>130</v>
+      </c>
+      <c r="E66" s="46">
+        <v>34493</v>
       </c>
       <c r="F66" s="2" t="str">
-        <f t="shared" ref="F66:F123" ca="1" si="4">DAY(E66) &amp; "/" &amp;MONTH(E66)&amp;"/"&amp;YEAR(TODAY())</f>
-        <v>10/8/2020</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>8/6/2020</v>
       </c>
       <c r="G66" s="6" t="str">
-        <f t="shared" ref="G66:G123" ca="1" si="5">TEXT(F66,"dddd")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>lunes</v>
       </c>
       <c r="H66" s="7" t="str">
-        <f t="shared" ref="H66:H123" ca="1" si="6">TEXT(F66,"mmmm")</f>
-        <v>agosto</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>junio</v>
       </c>
       <c r="I66" s="13" t="str">
-        <f t="shared" ref="I66:I123" ca="1" si="7">TEXT(F66,"MMMM"&amp;" "&amp;"DD")</f>
-        <v>agosto 10</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>junio 08</v>
       </c>
       <c r="J66" s="14"/>
     </row>
     <row r="67" spans="1:10" ht="27.75" customHeight="1">
       <c r="A67" s="19">
-        <v>1030603708</v>
+        <v>1018408022</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C67" s="26" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E67" s="6">
-        <v>33603</v>
+        <v>31690</v>
       </c>
       <c r="F67" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>31/12/2020</v>
+        <v>5/10/2020</v>
       </c>
       <c r="G67" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>jueves</v>
+        <v>lunes</v>
       </c>
       <c r="H67" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>diciembre</v>
+        <v>octubre</v>
       </c>
       <c r="I67" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>diciembre 31</v>
+        <v>octubre 05</v>
       </c>
       <c r="J67" s="14"/>
     </row>
     <row r="68" spans="1:10" ht="27.75" customHeight="1">
       <c r="A68" s="20">
-        <v>80159697</v>
+        <v>1121921673</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>244</v>
+        <v>135</v>
+      </c>
+      <c r="E68" s="6">
+        <v>34797</v>
       </c>
       <c r="F68" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>28/6/2020</v>
+        <v>8/4/2020</v>
       </c>
       <c r="G68" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>domingo</v>
+        <v>miércoles</v>
       </c>
       <c r="H68" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>junio</v>
+        <v>abril</v>
       </c>
       <c r="I68" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>junio 28</v>
+        <v>abril 08</v>
       </c>
       <c r="J68" s="14"/>
     </row>
     <row r="69" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A69" s="21">
-        <v>80227221</v>
+      <c r="A69" s="20">
+        <v>708358</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>297</v>
+        <v>136</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="E69" s="28">
-        <v>29246</v>
+        <v>101</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="32" t="s">
+        <v>233</v>
       </c>
       <c r="F69" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>26/1/2020</v>
+        <v>21/12/2020</v>
       </c>
       <c r="G69" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>domingo</v>
+        <v>lunes</v>
       </c>
       <c r="H69" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>enero</v>
+        <v>diciembre</v>
       </c>
       <c r="I69" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>enero 26</v>
+        <v>diciembre 21</v>
       </c>
       <c r="J69" s="14"/>
     </row>
     <row r="70" spans="1:10" ht="27.75" customHeight="1">
       <c r="A70" s="19">
-        <v>1020732976</v>
+        <v>1030556602</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="E70" s="6">
-        <v>32291</v>
+        <v>138</v>
+      </c>
+      <c r="E70" s="28">
+        <v>32649</v>
       </c>
       <c r="F70" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>28/5/2020</v>
+        <v>21/5/2020</v>
       </c>
       <c r="G70" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4299,29 +4252,27 @@
       </c>
       <c r="I70" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mayo 28</v>
+        <v>mayo 21</v>
       </c>
       <c r="J70" s="14"/>
     </row>
     <row r="71" spans="1:10" ht="27.75" customHeight="1">
       <c r="A71" s="20">
-        <v>81715564</v>
+        <v>74189292</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>136</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D71" s="26"/>
       <c r="E71" s="34" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F71" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>12/2/2020</v>
+        <v>8/1/2020</v>
       </c>
       <c r="G71" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4329,101 +4280,101 @@
       </c>
       <c r="H71" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>febrero</v>
+        <v>enero</v>
       </c>
       <c r="I71" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>febrero 12</v>
+        <v>enero 08</v>
       </c>
       <c r="J71" s="14"/>
     </row>
     <row r="72" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A72" s="20">
-        <v>797779</v>
+      <c r="A72" s="21">
+        <v>79444390</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>138</v>
+        <v>308</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="E72" s="48">
-        <v>34493</v>
+        <v>140</v>
+      </c>
+      <c r="E72" s="42">
+        <v>24855</v>
       </c>
       <c r="F72" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8/6/2020</v>
+        <v>18/1/2020</v>
       </c>
       <c r="G72" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>lunes</v>
+        <v>sábado</v>
       </c>
       <c r="H72" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>junio</v>
+        <v>enero</v>
       </c>
       <c r="I72" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>junio 08</v>
+        <v>enero 18</v>
       </c>
       <c r="J72" s="14"/>
     </row>
     <row r="73" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A73" s="19">
-        <v>1018408022</v>
+      <c r="A73" s="20">
+        <v>42071195</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>140</v>
+        <v>283</v>
       </c>
       <c r="C73" s="26" t="s">
         <v>141</v>
       </c>
       <c r="D73" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E73" s="6">
-        <v>31690</v>
+        <v>142</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>235</v>
       </c>
       <c r="F73" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>5/10/2020</v>
+        <v>14/11/2020</v>
       </c>
       <c r="G73" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>lunes</v>
+        <v>sábado</v>
       </c>
       <c r="H73" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>octubre</v>
+        <v>noviembre</v>
       </c>
       <c r="I73" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>octubre 05</v>
+        <v>noviembre 14</v>
       </c>
       <c r="J73" s="14"/>
     </row>
     <row r="74" spans="1:10" ht="27.75" customHeight="1">
       <c r="A74" s="20">
-        <v>1121921673</v>
+        <v>538039</v>
       </c>
       <c r="B74" s="26" t="s">
-        <v>142</v>
+        <v>284</v>
       </c>
       <c r="C74" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="D74" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="D74" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E74" s="6">
-        <v>34797</v>
+      <c r="E74" s="39">
+        <v>32015</v>
       </c>
       <c r="F74" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8/4/2020</v>
+        <v>26/8/2020</v>
       </c>
       <c r="G74" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4431,35 +4382,37 @@
       </c>
       <c r="H74" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>abril</v>
+        <v>agosto</v>
       </c>
       <c r="I74" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>abril 08</v>
+        <v>agosto 26</v>
       </c>
       <c r="J74" s="14"/>
     </row>
     <row r="75" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A75" s="20">
-        <v>708358</v>
+      <c r="A75" s="22">
+        <v>1018431667</v>
       </c>
       <c r="B75" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="32" t="s">
-        <v>246</v>
+      <c r="D75" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="2">
+        <v>32867</v>
       </c>
       <c r="F75" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>21/12/2020</v>
+        <v>25/12/2020</v>
       </c>
       <c r="G75" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>lunes</v>
+        <v>viernes</v>
       </c>
       <c r="H75" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4467,16 +4420,16 @@
       </c>
       <c r="I75" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>diciembre 21</v>
+        <v>diciembre 25</v>
       </c>
       <c r="J75" s="14"/>
     </row>
     <row r="76" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A76" s="19">
-        <v>1030556602</v>
+      <c r="A76" s="20">
+        <v>1015407512</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="C76" s="26" t="s">
         <v>146</v>
@@ -4484,252 +4437,254 @@
       <c r="D76" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="E76" s="28">
-        <v>32649</v>
+      <c r="E76" s="45">
+        <v>32406</v>
       </c>
       <c r="F76" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>21/5/2020</v>
+        <v>20/9/2020</v>
       </c>
       <c r="G76" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>jueves</v>
+        <v>domingo</v>
       </c>
       <c r="H76" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mayo</v>
+        <v>septiembre</v>
       </c>
       <c r="I76" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mayo 21</v>
+        <v>septiembre 20</v>
       </c>
       <c r="J76" s="14"/>
     </row>
     <row r="77" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A77" s="19">
-        <v>1016027335</v>
+      <c r="A77" s="20">
+        <v>52185178</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>146</v>
       </c>
       <c r="D77" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E77" s="6">
-        <v>33055</v>
+        <v>147</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="F77" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1/7/2020</v>
+        <v>3/1/2020</v>
       </c>
       <c r="G77" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>miércoles</v>
+        <v>viernes</v>
       </c>
       <c r="H77" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>julio</v>
+        <v>enero</v>
       </c>
       <c r="I77" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>julio 01</v>
+        <v>enero 03</v>
       </c>
       <c r="J77" s="14"/>
     </row>
     <row r="78" spans="1:10" ht="27.75" customHeight="1">
       <c r="A78" s="20">
-        <v>74189292</v>
+        <v>1018402487</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="C78" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="34" t="s">
-        <v>247</v>
+        <v>148</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>237</v>
       </c>
       <c r="F78" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8/1/2020</v>
+        <v>10/2/2020</v>
       </c>
       <c r="G78" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>miércoles</v>
+        <v>lunes</v>
       </c>
       <c r="H78" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>enero</v>
+        <v>febrero</v>
       </c>
       <c r="I78" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>enero 08</v>
+        <v>febrero 10</v>
       </c>
       <c r="J78" s="14"/>
     </row>
     <row r="79" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A79" s="19">
-        <v>1031159955</v>
+      <c r="A79" s="20">
+        <v>1014193139</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>150</v>
+        <v>329</v>
       </c>
       <c r="C79" s="26" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E79" s="6">
-        <v>34896</v>
+        <v>107</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>238</v>
       </c>
       <c r="F79" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>16/7/2020</v>
+        <v>2/5/2020</v>
       </c>
       <c r="G79" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>jueves</v>
+        <v>sábado</v>
       </c>
       <c r="H79" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>julio</v>
+        <v>mayo</v>
       </c>
       <c r="I79" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>julio 16</v>
+        <v>mayo 02</v>
       </c>
       <c r="J79" s="14"/>
     </row>
     <row r="80" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A80" s="21">
-        <v>79444390</v>
+      <c r="A80" s="20">
+        <v>33368786</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>217</v>
+        <v>287</v>
       </c>
       <c r="C80" s="26" t="s">
-        <v>326</v>
+        <v>10</v>
       </c>
       <c r="D80" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E80" s="43">
-        <v>24855</v>
+        <v>150</v>
+      </c>
+      <c r="E80" s="33">
+        <v>30475</v>
       </c>
       <c r="F80" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>18/1/2020</v>
+        <v>8/6/2020</v>
       </c>
       <c r="G80" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sábado</v>
+        <v>lunes</v>
       </c>
       <c r="H80" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>enero</v>
+        <v>junio</v>
       </c>
       <c r="I80" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>enero 18</v>
+        <v>junio 08</v>
       </c>
       <c r="J80" s="14"/>
     </row>
     <row r="81" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A81" s="20">
-        <v>42071195</v>
+      <c r="A81" s="21">
+        <v>1118558401</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="C81" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D81" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="D81" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="E81" s="34" t="s">
-        <v>248</v>
+      <c r="E81" s="42">
+        <v>34544</v>
       </c>
       <c r="F81" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>14/11/2020</v>
+        <v>29/7/2020</v>
       </c>
       <c r="G81" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sábado</v>
+        <v>miércoles</v>
       </c>
       <c r="H81" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>noviembre</v>
+        <v>julio</v>
       </c>
       <c r="I81" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>noviembre 14</v>
+        <v>julio 29</v>
       </c>
       <c r="J81" s="14"/>
     </row>
     <row r="82" spans="1:10" ht="27.75" customHeight="1">
       <c r="A82" s="20">
-        <v>538039</v>
+        <v>1232390447</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C82" s="26" t="s">
-        <v>325</v>
+        <v>110</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" s="40">
-        <v>32015</v>
+        <v>153</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>239</v>
       </c>
       <c r="F82" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>26/8/2020</v>
+        <v>6/9/2020</v>
       </c>
       <c r="G82" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>miércoles</v>
+        <v>domingo</v>
       </c>
       <c r="H82" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>agosto</v>
+        <v>septiembre</v>
       </c>
       <c r="I82" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>agosto 26</v>
+        <v>septiembre 06</v>
       </c>
       <c r="J82" s="14"/>
     </row>
     <row r="83" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A83" s="22">
-        <v>1018431667</v>
+      <c r="A83" s="20">
+        <v>80927833</v>
       </c>
       <c r="B83" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C83" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E83" s="2">
-        <v>32867</v>
+      <c r="E83" s="34" t="s">
+        <v>240</v>
       </c>
       <c r="F83" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>25/12/2020</v>
+        <v>16/12/2020</v>
       </c>
       <c r="G83" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>viernes</v>
+        <v>miércoles</v>
       </c>
       <c r="H83" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4737,97 +4692,97 @@
       </c>
       <c r="I83" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>diciembre 25</v>
+        <v>diciembre 16</v>
       </c>
       <c r="J83" s="14"/>
     </row>
     <row r="84" spans="1:10" ht="27.75" customHeight="1">
       <c r="A84" s="20">
-        <v>1015407512</v>
+        <v>1023928623</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C84" s="26" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="D84" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="E84" s="47">
-        <v>32406</v>
+        <v>156</v>
+      </c>
+      <c r="E84" s="34" t="s">
+        <v>241</v>
       </c>
       <c r="F84" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>20/9/2020</v>
+        <v>29/10/2020</v>
       </c>
       <c r="G84" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>domingo</v>
+        <v>jueves</v>
       </c>
       <c r="H84" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>septiembre</v>
+        <v>octubre</v>
       </c>
       <c r="I84" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>septiembre 20</v>
+        <v>octubre 29</v>
       </c>
       <c r="J84" s="14"/>
     </row>
     <row r="85" spans="1:10" ht="27.75" customHeight="1">
       <c r="A85" s="20">
-        <v>52185178</v>
+        <v>39625202</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="C85" s="26" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="E85" s="34" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F85" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>3/1/2020</v>
+        <v>26/5/2020</v>
       </c>
       <c r="G85" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>viernes</v>
+        <v>martes</v>
       </c>
       <c r="H85" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>enero</v>
+        <v>mayo</v>
       </c>
       <c r="I85" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>enero 03</v>
+        <v>mayo 26</v>
       </c>
       <c r="J85" s="14"/>
     </row>
     <row r="86" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A86" s="20">
-        <v>1018402487</v>
+      <c r="A86" s="21">
+        <v>1020786676</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>267</v>
+        <v>157</v>
       </c>
       <c r="C86" s="26" t="s">
-        <v>159</v>
+        <v>57</v>
       </c>
       <c r="D86" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="32" t="s">
-        <v>250</v>
+        <v>158</v>
+      </c>
+      <c r="E86" s="42">
+        <v>25144</v>
       </c>
       <c r="F86" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>10/2/2020</v>
+        <v>2/11/2020</v>
       </c>
       <c r="G86" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4835,173 +4790,173 @@
       </c>
       <c r="H86" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>febrero</v>
+        <v>noviembre</v>
       </c>
       <c r="I86" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>febrero 10</v>
+        <v>noviembre 02</v>
       </c>
       <c r="J86" s="14"/>
     </row>
     <row r="87" spans="1:10" ht="27.75" customHeight="1">
       <c r="A87" s="20">
-        <v>1014193139</v>
+        <v>1000213403</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>349</v>
+        <v>159</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>160</v>
       </c>
       <c r="D87" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E87" s="34" t="s">
-        <v>251</v>
+        <v>161</v>
+      </c>
+      <c r="E87" s="45">
+        <v>36850</v>
       </c>
       <c r="F87" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2/5/2020</v>
+        <v>20/11/2020</v>
       </c>
       <c r="G87" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sábado</v>
+        <v>viernes</v>
       </c>
       <c r="H87" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mayo</v>
+        <v>noviembre</v>
       </c>
       <c r="I87" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mayo 02</v>
+        <v>noviembre 20</v>
       </c>
       <c r="J87" s="14"/>
     </row>
     <row r="88" spans="1:10" ht="27.75" customHeight="1">
       <c r="A88" s="20">
-        <v>33368786</v>
+        <v>52516828</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C88" s="26" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D88" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="E88" s="33">
-        <v>30475</v>
+        <v>100</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>243</v>
       </c>
       <c r="F88" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8/6/2020</v>
+        <v>12/12/2020</v>
       </c>
       <c r="G88" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>lunes</v>
+        <v>sábado</v>
       </c>
       <c r="H88" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>junio</v>
+        <v>diciembre</v>
       </c>
       <c r="I88" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>junio 08</v>
+        <v>diciembre 12</v>
       </c>
       <c r="J88" s="14"/>
     </row>
     <row r="89" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A89" s="21">
-        <v>1118558401</v>
+      <c r="A89" s="20">
+        <v>52774698</v>
       </c>
       <c r="B89" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C89" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D89" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="C89" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="D89" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E89" s="43">
-        <v>34544</v>
+      <c r="E89" s="34" t="s">
+        <v>244</v>
       </c>
       <c r="F89" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>29/7/2020</v>
+        <v>5/5/2020</v>
       </c>
       <c r="G89" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>miércoles</v>
+        <v>martes</v>
       </c>
       <c r="H89" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>julio</v>
+        <v>mayo</v>
       </c>
       <c r="I89" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>julio 29</v>
+        <v>mayo 05</v>
       </c>
       <c r="J89" s="14"/>
     </row>
     <row r="90" spans="1:10" ht="27.75" customHeight="1">
       <c r="A90" s="20">
-        <v>1232390447</v>
+        <v>79625067</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>306</v>
+        <v>87</v>
       </c>
       <c r="C90" s="26" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="D90" s="26" t="s">
         <v>164</v>
       </c>
       <c r="E90" s="34" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F90" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>6/9/2020</v>
+        <v>13/8/2020</v>
       </c>
       <c r="G90" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>domingo</v>
+        <v>jueves</v>
       </c>
       <c r="H90" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>septiembre</v>
+        <v>agosto</v>
       </c>
       <c r="I90" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>septiembre 06</v>
+        <v>agosto 13</v>
       </c>
       <c r="J90" s="14"/>
     </row>
     <row r="91" spans="1:10" ht="27.75" customHeight="1">
       <c r="A91" s="20">
-        <v>80927833</v>
+        <v>1032401708</v>
       </c>
       <c r="B91" s="26" t="s">
         <v>165</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>13</v>
+        <v>166</v>
       </c>
       <c r="D91" s="26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F91" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>16/12/2020</v>
+        <v>14/12/2020</v>
       </c>
       <c r="G91" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>miércoles</v>
+        <v>lunes</v>
       </c>
       <c r="H91" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5009,67 +4964,67 @@
       </c>
       <c r="I91" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>diciembre 16</v>
+        <v>diciembre 14</v>
       </c>
       <c r="J91" s="14"/>
     </row>
     <row r="92" spans="1:10" ht="27.75" customHeight="1">
       <c r="A92" s="20">
-        <v>1023928623</v>
+        <v>80791236</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="D92" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>254</v>
+        <v>169</v>
+      </c>
+      <c r="E92" s="32" t="s">
+        <v>247</v>
       </c>
       <c r="F92" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>29/10/2020</v>
+        <v>12/4/2020</v>
       </c>
       <c r="G92" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>jueves</v>
+        <v>domingo</v>
       </c>
       <c r="H92" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>octubre</v>
+        <v>abril</v>
       </c>
       <c r="I92" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>octubre 29</v>
+        <v>abril 12</v>
       </c>
       <c r="J92" s="14"/>
     </row>
     <row r="93" spans="1:10" ht="27.75" customHeight="1">
       <c r="A93" s="20">
-        <v>39625202</v>
+        <v>35518207</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D93" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E93" s="34" t="s">
-        <v>255</v>
+        <v>205</v>
+      </c>
+      <c r="E93" s="32" t="s">
+        <v>248</v>
       </c>
       <c r="F93" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>26/5/2020</v>
+        <v>14/5/2020</v>
       </c>
       <c r="G93" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>martes</v>
+        <v>jueves</v>
       </c>
       <c r="H93" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5077,47 +5032,47 @@
       </c>
       <c r="I93" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mayo 26</v>
+        <v>mayo 14</v>
       </c>
       <c r="J93" s="14"/>
     </row>
     <row r="94" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A94" s="21">
-        <v>1020786676</v>
+      <c r="A94" s="19">
+        <v>1054558922</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>168</v>
+        <v>334</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>57</v>
+        <v>206</v>
       </c>
       <c r="D94" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="E94" s="43">
-        <v>25144</v>
+        <v>293</v>
+      </c>
+      <c r="E94" s="28">
+        <v>34097</v>
       </c>
       <c r="F94" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>2/11/2020</v>
+        <v>8/5/2020</v>
       </c>
       <c r="G94" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>lunes</v>
+        <v>viernes</v>
       </c>
       <c r="H94" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>noviembre</v>
+        <v>mayo</v>
       </c>
       <c r="I94" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>noviembre 02</v>
+        <v>mayo 08</v>
       </c>
       <c r="J94" s="14"/>
     </row>
     <row r="95" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A95" s="20">
-        <v>1000213403</v>
+      <c r="A95" s="19">
+        <v>52055412</v>
       </c>
       <c r="B95" s="26" t="s">
         <v>170</v>
@@ -5128,220 +5083,220 @@
       <c r="D95" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="E95" s="47">
-        <v>36850</v>
+      <c r="E95" s="6">
+        <v>26659</v>
       </c>
       <c r="F95" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>20/11/2020</v>
+        <v>26/12/2020</v>
       </c>
       <c r="G95" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>viernes</v>
+        <v>sábado</v>
       </c>
       <c r="H95" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>noviembre</v>
+        <v>diciembre</v>
       </c>
       <c r="I95" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>noviembre 20</v>
+        <v>diciembre 26</v>
       </c>
       <c r="J95" s="14"/>
     </row>
     <row r="96" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A96" s="20">
-        <v>52516828</v>
+      <c r="A96" s="22">
+        <v>1030571445</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>308</v>
+        <v>173</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>171</v>
+        <v>305</v>
       </c>
       <c r="D96" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E96" s="34" t="s">
-        <v>256</v>
+        <v>100</v>
+      </c>
+      <c r="E96" s="41">
+        <v>32977</v>
       </c>
       <c r="F96" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>12/12/2020</v>
+        <v>14/4/2020</v>
       </c>
       <c r="G96" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sábado</v>
+        <v>martes</v>
       </c>
       <c r="H96" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>diciembre</v>
+        <v>abril</v>
       </c>
       <c r="I96" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>diciembre 12</v>
+        <v>abril 14</v>
       </c>
       <c r="J96" s="14"/>
     </row>
     <row r="97" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A97" s="20">
-        <v>52774698</v>
+      <c r="A97" s="21">
+        <v>1039446969</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>350</v>
+        <v>174</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D97" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="E97" s="34" t="s">
-        <v>257</v>
+        <v>7</v>
+      </c>
+      <c r="E97" s="6">
+        <v>31792</v>
       </c>
       <c r="F97" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>5/5/2020</v>
+        <v>15/1/2020</v>
       </c>
       <c r="G97" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>martes</v>
+        <v>miércoles</v>
       </c>
       <c r="H97" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mayo</v>
+        <v>enero</v>
       </c>
       <c r="I97" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mayo 05</v>
+        <v>enero 15</v>
       </c>
       <c r="J97" s="14"/>
     </row>
     <row r="98" spans="1:10" ht="27.75" customHeight="1">
       <c r="A98" s="20">
-        <v>79625067</v>
+        <v>1010204965</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>88</v>
+        <v>294</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>174</v>
+        <v>267</v>
       </c>
       <c r="D98" s="26" t="s">
         <v>175</v>
       </c>
       <c r="E98" s="34" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="F98" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>13/8/2020</v>
+        <v>19/10/2020</v>
       </c>
       <c r="G98" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>jueves</v>
+        <v>lunes</v>
       </c>
       <c r="H98" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>agosto</v>
+        <v>octubre</v>
       </c>
       <c r="I98" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>agosto 13</v>
+        <v>octubre 19</v>
       </c>
       <c r="J98" s="14"/>
     </row>
     <row r="99" spans="1:10" ht="27.75" customHeight="1">
       <c r="A99" s="20">
-        <v>1032401708</v>
+        <v>79599772</v>
       </c>
       <c r="B99" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C99" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="26" t="s">
-        <v>177</v>
-      </c>
       <c r="D99" s="26" t="s">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="E99" s="34" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F99" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>14/12/2020</v>
+        <v>22/3/2020</v>
       </c>
       <c r="G99" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>lunes</v>
+        <v>domingo</v>
       </c>
       <c r="H99" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>diciembre</v>
+        <v>marzo</v>
       </c>
       <c r="I99" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>diciembre 14</v>
+        <v>marzo 22</v>
       </c>
       <c r="J99" s="14"/>
     </row>
     <row r="100" spans="1:10" ht="27.75" customHeight="1">
       <c r="A100" s="20">
-        <v>80791236</v>
+        <v>1073427192</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>310</v>
+        <v>177</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D100" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="E100" s="32" t="s">
-        <v>260</v>
+        <v>107</v>
+      </c>
+      <c r="E100" s="45">
+        <v>33521</v>
       </c>
       <c r="F100" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>12/4/2020</v>
+        <v>10/10/2020</v>
       </c>
       <c r="G100" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>domingo</v>
+        <v>sábado</v>
       </c>
       <c r="H100" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>abril</v>
+        <v>octubre</v>
       </c>
       <c r="I100" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>abril 12</v>
+        <v>octubre 10</v>
       </c>
       <c r="J100" s="14"/>
     </row>
     <row r="101" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A101" s="20">
-        <v>35518207</v>
+      <c r="A101" s="19">
+        <v>1015439967</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="D101" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="E101" s="32" t="s">
-        <v>261</v>
+        <v>179</v>
+      </c>
+      <c r="E101" s="6">
+        <v>34093</v>
       </c>
       <c r="F101" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>14/5/2020</v>
+        <v>4/5/2020</v>
       </c>
       <c r="G101" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>jueves</v>
+        <v>lunes</v>
       </c>
       <c r="H101" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5349,29 +5304,29 @@
       </c>
       <c r="I101" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mayo 14</v>
+        <v>mayo 04</v>
       </c>
       <c r="J101" s="14"/>
     </row>
     <row r="102" spans="1:10" ht="27.75" customHeight="1">
       <c r="A102" s="19">
-        <v>1054558922</v>
+        <v>51777478</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>354</v>
+        <v>180</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="D102" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="E102" s="28">
-        <v>34097</v>
+        <v>113</v>
+      </c>
+      <c r="E102" s="6">
+        <v>23708</v>
       </c>
       <c r="F102" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8/5/2020</v>
+        <v>27/11/2020</v>
       </c>
       <c r="G102" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5379,135 +5334,135 @@
       </c>
       <c r="H102" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mayo</v>
+        <v>noviembre</v>
       </c>
       <c r="I102" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mayo 08</v>
+        <v>noviembre 27</v>
       </c>
       <c r="J102" s="14"/>
     </row>
     <row r="103" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A103" s="19">
-        <v>52055412</v>
+      <c r="A103" s="21">
+        <v>1033808782</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>181</v>
+        <v>296</v>
       </c>
       <c r="C103" s="26" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D103" s="26" t="s">
-        <v>183</v>
-      </c>
-      <c r="E103" s="6">
-        <v>26659</v>
+        <v>57</v>
+      </c>
+      <c r="E103" s="47">
+        <v>35976</v>
       </c>
       <c r="F103" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>26/12/2020</v>
+        <v>30/6/2020</v>
       </c>
       <c r="G103" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sábado</v>
+        <v>martes</v>
       </c>
       <c r="H103" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>diciembre</v>
+        <v>junio</v>
       </c>
       <c r="I103" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>diciembre 26</v>
+        <v>junio 30</v>
       </c>
       <c r="J103" s="14"/>
     </row>
     <row r="104" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A104" s="22">
-        <v>1030571445</v>
+      <c r="A104" s="21">
+        <v>1018508608</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>184</v>
+        <v>297</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>323</v>
+        <v>119</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E104" s="42">
-        <v>32977</v>
+        <v>181</v>
+      </c>
+      <c r="E104" s="6">
+        <v>36192</v>
       </c>
       <c r="F104" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>14/4/2020</v>
+        <v>1/2/2020</v>
       </c>
       <c r="G104" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>martes</v>
+        <v>sábado</v>
       </c>
       <c r="H104" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>abril</v>
+        <v>febrero</v>
       </c>
       <c r="I104" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>abril 14</v>
+        <v>febrero 01</v>
       </c>
       <c r="J104" s="14"/>
     </row>
     <row r="105" spans="1:10" ht="27.75" customHeight="1">
       <c r="A105" s="21">
-        <v>1039446969</v>
+        <v>1069306088</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>185</v>
+        <v>254</v>
       </c>
       <c r="C105" s="26" t="s">
-        <v>322</v>
+        <v>208</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E105" s="6">
-        <v>31792</v>
+        <v>209</v>
+      </c>
+      <c r="E105" s="44">
+        <v>35776</v>
       </c>
       <c r="F105" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>15/1/2020</v>
+        <v>12/12/2020</v>
       </c>
       <c r="G105" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>miércoles</v>
+        <v>sábado</v>
       </c>
       <c r="H105" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>enero</v>
+        <v>diciembre</v>
       </c>
       <c r="I105" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>enero 15</v>
+        <v>diciembre 12</v>
       </c>
       <c r="J105" s="14"/>
     </row>
     <row r="106" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A106" s="20">
-        <v>1010204965</v>
+      <c r="A106" s="19">
+        <v>1015408022</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="C106" s="26" t="s">
-        <v>280</v>
+        <v>210</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="E106" s="34" t="s">
-        <v>262</v>
+        <v>211</v>
+      </c>
+      <c r="E106" s="28">
+        <v>32274</v>
       </c>
       <c r="F106" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>19/10/2020</v>
+        <v>11/5/2020</v>
       </c>
       <c r="G106" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5515,135 +5470,135 @@
       </c>
       <c r="H106" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>octubre</v>
+        <v>mayo</v>
       </c>
       <c r="I106" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>octubre 19</v>
+        <v>mayo 11</v>
       </c>
       <c r="J106" s="14"/>
     </row>
     <row r="107" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A107" s="20">
-        <v>79599772</v>
+      <c r="A107" s="19">
+        <v>1026259689</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C107" s="26" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="E107" s="34" t="s">
-        <v>263</v>
+        <v>182</v>
+      </c>
+      <c r="E107" s="6">
+        <v>32181</v>
       </c>
       <c r="F107" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>22/3/2020</v>
+        <v>8/2/2020</v>
       </c>
       <c r="G107" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>domingo</v>
+        <v>sábado</v>
       </c>
       <c r="H107" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>marzo</v>
+        <v>febrero</v>
       </c>
       <c r="I107" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>marzo 22</v>
+        <v>febrero 08</v>
       </c>
       <c r="J107" s="14"/>
     </row>
     <row r="108" spans="1:10" ht="27.75" customHeight="1">
       <c r="A108" s="20">
-        <v>1073427192</v>
+        <v>79421720</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="C108" s="26" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E108" s="47">
-        <v>33521</v>
+        <v>107</v>
+      </c>
+      <c r="E108" s="34" t="s">
+        <v>251</v>
       </c>
       <c r="F108" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>10/10/2020</v>
+        <v>2/7/2020</v>
       </c>
       <c r="G108" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sábado</v>
+        <v>jueves</v>
       </c>
       <c r="H108" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>octubre</v>
+        <v>julio</v>
       </c>
       <c r="I108" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>octubre 10</v>
+        <v>julio 02</v>
       </c>
       <c r="J108" s="14"/>
     </row>
     <row r="109" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A109" s="19">
-        <v>1015439967</v>
+      <c r="A109" s="20">
+        <v>79500383</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="C109" s="26" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="E109" s="6">
-        <v>34093</v>
+        <v>184</v>
+      </c>
+      <c r="E109" s="34" t="s">
+        <v>252</v>
       </c>
       <c r="F109" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4/5/2020</v>
+        <v>23/6/2020</v>
       </c>
       <c r="G109" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>lunes</v>
+        <v>martes</v>
       </c>
       <c r="H109" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mayo</v>
+        <v>junio</v>
       </c>
       <c r="I109" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mayo 04</v>
+        <v>junio 23</v>
       </c>
       <c r="J109" s="14"/>
     </row>
     <row r="110" spans="1:10" ht="27.75" customHeight="1">
       <c r="A110" s="19">
-        <v>51777478</v>
+        <v>1016008903</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>191</v>
+        <v>300</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="E110" s="6">
-        <v>23708</v>
+        <v>32187</v>
       </c>
       <c r="F110" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>27/11/2020</v>
+        <v>14/2/2020</v>
       </c>
       <c r="G110" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5651,169 +5606,167 @@
       </c>
       <c r="H110" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>noviembre</v>
+        <v>febrero</v>
       </c>
       <c r="I110" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>noviembre 27</v>
+        <v>febrero 14</v>
       </c>
       <c r="J110" s="14"/>
     </row>
     <row r="111" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A111" s="21">
-        <v>1033808782</v>
+      <c r="A111" s="20">
+        <v>9096962</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E111" s="49">
-        <v>35976</v>
+        <v>186</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>253</v>
       </c>
       <c r="F111" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>30/6/2020</v>
+        <v>10/10/2020</v>
       </c>
       <c r="G111" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>martes</v>
+        <v>sábado</v>
       </c>
       <c r="H111" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>junio</v>
+        <v>octubre</v>
       </c>
       <c r="I111" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>junio 30</v>
+        <v>octubre 10</v>
       </c>
       <c r="J111" s="14"/>
     </row>
     <row r="112" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A112" s="21">
-        <v>1018508608</v>
+      <c r="A112" s="20">
+        <v>1073326157</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>315</v>
+        <v>187</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="E112" s="6">
-        <v>36192</v>
+        <v>189</v>
+      </c>
+      <c r="E112" s="45">
+        <v>34696</v>
       </c>
       <c r="F112" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>1/2/2020</v>
+        <v>28/12/2020</v>
       </c>
       <c r="G112" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sábado</v>
+        <v>lunes</v>
       </c>
       <c r="H112" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>febrero</v>
+        <v>diciembre</v>
       </c>
       <c r="I112" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>febrero 01</v>
+        <v>diciembre 28</v>
       </c>
       <c r="J112" s="14"/>
     </row>
-    <row r="113" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A113" s="21">
-        <v>1069306088</v>
+    <row r="113" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A113" s="20">
+        <v>80054321</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>267</v>
+        <v>190</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="E113" s="46">
-        <v>35776</v>
+        <v>90</v>
+      </c>
+      <c r="E113" s="29">
+        <v>29702</v>
       </c>
       <c r="F113" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>12/12/2020</v>
+        <v>26/4/2020</v>
       </c>
       <c r="G113" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>sábado</v>
+        <v>domingo</v>
       </c>
       <c r="H113" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>diciembre</v>
+        <v>abril</v>
       </c>
       <c r="I113" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>diciembre 12</v>
-      </c>
-      <c r="J113" s="14"/>
-    </row>
-    <row r="114" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A114" s="19">
-        <v>1015408022</v>
-      </c>
-      <c r="B114" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="C114" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="D114" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="E114" s="28">
-        <v>32274</v>
+        <v>abril 26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A114" s="48">
+        <v>1018418193</v>
+      </c>
+      <c r="B114" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="C114" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D114" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="E114" s="51">
+        <v>32366</v>
       </c>
       <c r="F114" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>11/5/2020</v>
+        <v>11/8/2020</v>
       </c>
       <c r="G114" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>lunes</v>
+        <v>martes</v>
       </c>
       <c r="H114" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>mayo</v>
+        <v>agosto</v>
       </c>
       <c r="I114" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>mayo 11</v>
-      </c>
-      <c r="J114" s="14"/>
-    </row>
-    <row r="115" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A115" s="19">
-        <v>1026259689</v>
-      </c>
-      <c r="B115" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="C115" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D115" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="E115" s="6">
-        <v>32181</v>
+        <v>agosto 11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A115" s="48">
+        <v>1022423588</v>
+      </c>
+      <c r="B115" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C115" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="E115" s="51">
+        <v>35434</v>
       </c>
       <c r="F115" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>8/2/2020</v>
+        <v>4/1/2020</v>
       </c>
       <c r="G115" s="6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -5821,520 +5774,454 @@
       </c>
       <c r="H115" s="7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>febrero</v>
+        <v>enero</v>
       </c>
       <c r="I115" s="13" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>febrero 08</v>
-      </c>
-      <c r="J115" s="14"/>
-    </row>
-    <row r="116" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A116" s="20">
-        <v>79421720</v>
-      </c>
-      <c r="B116" s="26" t="s">
+        <v>enero 04</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A116" s="48">
+        <v>1026585864</v>
+      </c>
+      <c r="B116" s="48" t="s">
+        <v>314</v>
+      </c>
+      <c r="C116" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="D116" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="E116" s="51">
+        <v>35104</v>
+      </c>
+      <c r="F116" s="2" t="str">
+        <f t="shared" ref="F116:F176" ca="1" si="8">DAY(E116) &amp; "/" &amp;MONTH(E116)&amp;"/"&amp;YEAR(TODAY())</f>
+        <v>9/2/2020</v>
+      </c>
+      <c r="G116" s="6" t="str">
+        <f t="shared" ref="G116:G176" ca="1" si="9">TEXT(F116,"dddd")</f>
+        <v>domingo</v>
+      </c>
+      <c r="H116" s="7" t="str">
+        <f t="shared" ref="H116:H176" ca="1" si="10">TEXT(F116,"mmmm")</f>
+        <v>febrero</v>
+      </c>
+      <c r="I116" s="13" t="str">
+        <f t="shared" ref="I116:I176" ca="1" si="11">TEXT(F116,"MMMM"&amp;" "&amp;"DD")</f>
+        <v>febrero 09</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A117" s="48">
+        <v>1007866100</v>
+      </c>
+      <c r="B117" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="C117" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117" s="51">
+        <v>36764</v>
+      </c>
+      <c r="F117" s="2" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>26/8/2020</v>
+      </c>
+      <c r="G117" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>miércoles</v>
+      </c>
+      <c r="H117" s="7" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>agosto</v>
+      </c>
+      <c r="I117" s="13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>agosto 26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A118" s="54">
+        <v>936874327081996</v>
+      </c>
+      <c r="B118" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="C118" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="D118" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="C116" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D116" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="E116" s="41" t="s">
-        <v>264</v>
-      </c>
-      <c r="F116" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>2/7/2020</v>
-      </c>
-      <c r="G116" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E118" s="53">
+        <v>35304</v>
+      </c>
+      <c r="F118" s="2" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>27/8/2020</v>
+      </c>
+      <c r="G118" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>jueves</v>
       </c>
-      <c r="H116" s="7" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>julio</v>
-      </c>
-      <c r="I116" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>julio 02</v>
-      </c>
-      <c r="J116" s="14"/>
-    </row>
-    <row r="117" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A117" s="20">
-        <v>79500383</v>
-      </c>
-      <c r="B117" s="26" t="s">
+      <c r="H118" s="7" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>agosto</v>
+      </c>
+      <c r="I118" s="13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>agosto 27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A119" s="49">
+        <v>79925972</v>
+      </c>
+      <c r="B119" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="C117" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="D117" s="26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E117" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="F117" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>23/6/2020</v>
-      </c>
-      <c r="G117" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="C119" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="D119" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="E119" s="55">
+        <v>30112</v>
+      </c>
+      <c r="F119" s="2" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>10/6/2020</v>
+      </c>
+      <c r="G119" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>miércoles</v>
+      </c>
+      <c r="H119" s="7" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>junio</v>
+      </c>
+      <c r="I119" s="13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>junio 10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A120" s="49">
+        <v>1014180638</v>
+      </c>
+      <c r="B120" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C120" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="E120" s="28">
+        <v>31634</v>
+      </c>
+      <c r="F120" s="2" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>10/8/2020</v>
+      </c>
+      <c r="G120" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>lunes</v>
+      </c>
+      <c r="H120" s="7" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>agosto</v>
+      </c>
+      <c r="I120" s="13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>agosto 10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A121" s="56">
+        <v>1032425039</v>
+      </c>
+      <c r="B121" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="C121" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D121" s="52" t="s">
+        <v>323</v>
+      </c>
+      <c r="E121" s="57">
+        <v>32415</v>
+      </c>
+      <c r="F121" s="2" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>29/9/2020</v>
+      </c>
+      <c r="G121" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>martes</v>
       </c>
-      <c r="H117" s="7" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>junio</v>
-      </c>
-      <c r="I117" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>junio 23</v>
-      </c>
-      <c r="J117" s="14"/>
-    </row>
-    <row r="118" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A118" s="19">
-        <v>1016008903</v>
-      </c>
-      <c r="B118" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="C118" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="E118" s="6">
-        <v>32187</v>
-      </c>
-      <c r="F118" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>14/2/2020</v>
-      </c>
-      <c r="G118" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>viernes</v>
-      </c>
-      <c r="H118" s="7" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>febrero</v>
-      </c>
-      <c r="I118" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>febrero 14</v>
-      </c>
-      <c r="J118" s="14"/>
-    </row>
-    <row r="119" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A119" s="20">
-        <v>9096962</v>
-      </c>
-      <c r="B119" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="C119" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="D119" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="E119" s="32" t="s">
-        <v>266</v>
-      </c>
-      <c r="F119" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>10/10/2020</v>
-      </c>
-      <c r="G119" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="H121" s="7" t="str">
+        <f t="shared" ca="1" si="10"/>
+        <v>septiembre</v>
+      </c>
+      <c r="I121" s="13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>septiembre 29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A122" s="48">
+        <v>1017155170</v>
+      </c>
+      <c r="B122" s="48" t="s">
+        <v>339</v>
+      </c>
+      <c r="C122" s="48" t="s">
+        <v>340</v>
+      </c>
+      <c r="D122" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="E122" s="51">
+        <v>32074</v>
+      </c>
+      <c r="F122" s="2" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>24/10/2020</v>
+      </c>
+      <c r="G122" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>sábado</v>
       </c>
-      <c r="H119" s="7" t="str">
-        <f t="shared" ca="1" si="6"/>
+      <c r="H122" s="7" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v>octubre</v>
       </c>
-      <c r="I119" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>octubre 10</v>
-      </c>
-      <c r="J119" s="14"/>
-    </row>
-    <row r="120" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A120" s="20">
-        <v>1073326157</v>
-      </c>
-      <c r="B120" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="C120" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="D120" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="E120" s="47">
-        <v>34696</v>
-      </c>
-      <c r="F120" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>28/12/2020</v>
-      </c>
-      <c r="G120" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>lunes</v>
-      </c>
-      <c r="H120" s="7" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>diciembre</v>
-      </c>
-      <c r="I120" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>diciembre 28</v>
-      </c>
-      <c r="J120" s="14"/>
-    </row>
-    <row r="121" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A121" s="20">
-        <v>80054321</v>
-      </c>
-      <c r="B121" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C121" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="D121" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E121" s="29">
-        <v>29702</v>
-      </c>
-      <c r="F121" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>26/4/2020</v>
-      </c>
-      <c r="G121" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>domingo</v>
-      </c>
-      <c r="H121" s="7" t="str">
-        <f t="shared" ca="1" si="6"/>
+      <c r="I122" s="13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>octubre 24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A123" s="48">
+        <v>79576351</v>
+      </c>
+      <c r="B123" s="48" t="s">
+        <v>341</v>
+      </c>
+      <c r="C123" s="48" t="s">
+        <v>343</v>
+      </c>
+      <c r="D123" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="E123" s="51">
+        <v>26391</v>
+      </c>
+      <c r="F123" s="2" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>2/4/2020</v>
+      </c>
+      <c r="G123" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>jueves</v>
+      </c>
+      <c r="H123" s="7" t="str">
+        <f t="shared" ca="1" si="10"/>
         <v>abril</v>
       </c>
-      <c r="I121" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>abril 26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A122" s="50">
-        <v>1018418193</v>
-      </c>
-      <c r="B122" s="50" t="s">
-        <v>328</v>
-      </c>
-      <c r="C122" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D122" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="E122" s="53">
-        <v>32366</v>
-      </c>
-      <c r="F122" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>11/8/2020</v>
-      </c>
-      <c r="G122" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
+      <c r="I123" s="13" t="str">
+        <f t="shared" ca="1" si="11"/>
+        <v>abril 02</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A124" s="48">
+        <v>79579112</v>
+      </c>
+      <c r="B124" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="C124" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D124" s="48" t="s">
+        <v>344</v>
+      </c>
+      <c r="E124" s="51">
+        <v>26044</v>
+      </c>
+      <c r="F124" s="2" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>21/4/2020</v>
+      </c>
+      <c r="G124" s="6" t="str">
+        <f t="shared" ca="1" si="9"/>
         <v>martes</v>
       </c>
-      <c r="H122" s="7" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>agosto</v>
-      </c>
-      <c r="I122" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>agosto 11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A123" s="50">
-        <v>1022423588</v>
-      </c>
-      <c r="B123" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C123" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D123" s="50" t="s">
-        <v>330</v>
-      </c>
-      <c r="E123" s="53">
-        <v>35434</v>
-      </c>
-      <c r="F123" s="2" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>4/1/2020</v>
-      </c>
-      <c r="G123" s="6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>sábado</v>
-      </c>
-      <c r="H123" s="7" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v>enero</v>
-      </c>
-      <c r="I123" s="13" t="str">
-        <f t="shared" ca="1" si="7"/>
-        <v>enero 04</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A124" s="50">
-        <v>1023892786</v>
-      </c>
-      <c r="B124" s="50" t="s">
-        <v>331</v>
-      </c>
-      <c r="C124" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="D124" s="50" t="s">
-        <v>332</v>
-      </c>
-      <c r="E124" s="53">
-        <v>32903</v>
-      </c>
-      <c r="F124" s="2" t="str">
-        <f t="shared" ref="F124:F185" ca="1" si="8">DAY(E124) &amp; "/" &amp;MONTH(E124)&amp;"/"&amp;YEAR(TODAY())</f>
-        <v>30/1/2020</v>
-      </c>
-      <c r="G124" s="6" t="str">
-        <f t="shared" ref="G124:G185" ca="1" si="9">TEXT(F124,"dddd")</f>
-        <v>jueves</v>
-      </c>
       <c r="H124" s="7" t="str">
-        <f t="shared" ref="H124:H185" ca="1" si="10">TEXT(F124,"mmmm")</f>
-        <v>enero</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>abril</v>
       </c>
       <c r="I124" s="13" t="str">
-        <f t="shared" ref="I124:I185" ca="1" si="11">TEXT(F124,"MMMM"&amp;" "&amp;"DD")</f>
-        <v>enero 30</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A125" s="50">
-        <v>1026585864</v>
-      </c>
-      <c r="B125" s="50" t="s">
-        <v>334</v>
-      </c>
-      <c r="C125" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="D125" s="50" t="s">
-        <v>333</v>
-      </c>
-      <c r="E125" s="53">
-        <v>35104</v>
-      </c>
+        <f t="shared" ca="1" si="11"/>
+        <v>abril 21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A125" s="48"/>
+      <c r="B125" s="48"/>
+      <c r="C125" s="48"/>
+      <c r="D125" s="48"/>
+      <c r="E125" s="51"/>
       <c r="F125" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>9/2/2020</v>
+        <v>0/1/2020</v>
       </c>
       <c r="G125" s="6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>domingo</v>
+        <v>0/1/2020</v>
       </c>
       <c r="H125" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>febrero</v>
+        <v>0/1/2020</v>
       </c>
       <c r="I125" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>febrero 09</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A126" s="50">
-        <v>1007866100</v>
-      </c>
-      <c r="B126" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="C126" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="E126" s="53">
-        <v>36764</v>
-      </c>
+        <v>0/1/2020</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A126" s="48"/>
+      <c r="B126" s="48"/>
+      <c r="C126" s="48"/>
+      <c r="D126" s="48"/>
+      <c r="E126" s="58"/>
       <c r="F126" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>26/8/2020</v>
+        <v>0/1/2020</v>
       </c>
       <c r="G126" s="6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>miércoles</v>
+        <v>0/1/2020</v>
       </c>
       <c r="H126" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>agosto</v>
+        <v>0/1/2020</v>
       </c>
       <c r="I126" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>agosto 26</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A127" s="56">
-        <v>936874327081996</v>
-      </c>
-      <c r="B127" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="C127" s="54" t="s">
-        <v>344</v>
-      </c>
-      <c r="D127" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="E127" s="55">
-        <v>35304</v>
-      </c>
+        <v>0/1/2020</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A127" s="48"/>
+      <c r="B127" s="48"/>
+      <c r="C127" s="48"/>
+      <c r="D127" s="48"/>
+      <c r="E127" s="58"/>
       <c r="F127" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>27/8/2020</v>
+        <v>0/1/2020</v>
       </c>
       <c r="G127" s="6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>jueves</v>
+        <v>0/1/2020</v>
       </c>
       <c r="H127" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>agosto</v>
+        <v>0/1/2020</v>
       </c>
       <c r="I127" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>agosto 27</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="27.75" customHeight="1">
-      <c r="A128" s="51">
-        <v>79925972</v>
-      </c>
-      <c r="B128" s="52" t="s">
-        <v>337</v>
-      </c>
-      <c r="C128" s="52" t="s">
-        <v>338</v>
-      </c>
-      <c r="D128" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="E128" s="57">
-        <v>30112</v>
-      </c>
+        <v>0/1/2020</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A128" s="48"/>
+      <c r="B128" s="48"/>
+      <c r="C128" s="48"/>
+      <c r="D128" s="48"/>
+      <c r="E128" s="58"/>
       <c r="F128" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10/6/2020</v>
+        <v>0/1/2020</v>
       </c>
       <c r="G128" s="6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>miércoles</v>
+        <v>0/1/2020</v>
       </c>
       <c r="H128" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>junio</v>
+        <v>0/1/2020</v>
       </c>
       <c r="I128" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>junio 10</v>
+        <v>0/1/2020</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A129" s="51">
-        <v>1014180638</v>
-      </c>
-      <c r="B129" s="52" t="s">
-        <v>340</v>
-      </c>
-      <c r="C129" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D129" s="52" t="s">
-        <v>341</v>
-      </c>
-      <c r="E129" s="28">
-        <v>31634</v>
-      </c>
+      <c r="A129" s="48"/>
+      <c r="B129" s="48"/>
+      <c r="C129" s="48"/>
+      <c r="D129" s="48"/>
+      <c r="E129" s="58"/>
       <c r="F129" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>10/8/2020</v>
+        <v>0/1/2020</v>
       </c>
       <c r="G129" s="6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>lunes</v>
+        <v>0/1/2020</v>
       </c>
       <c r="H129" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>agosto</v>
+        <v>0/1/2020</v>
       </c>
       <c r="I129" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>agosto 10</v>
+        <v>0/1/2020</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A130" s="58">
-        <v>1032425039</v>
-      </c>
-      <c r="B130" s="54" t="s">
-        <v>342</v>
-      </c>
-      <c r="C130" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="D130" s="54" t="s">
-        <v>343</v>
-      </c>
-      <c r="E130" s="59">
-        <v>32415</v>
-      </c>
+      <c r="A130" s="48"/>
+      <c r="B130" s="48"/>
+      <c r="C130" s="48"/>
+      <c r="D130" s="48"/>
+      <c r="E130" s="58"/>
       <c r="F130" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>29/9/2020</v>
+        <v>0/1/2020</v>
       </c>
       <c r="G130" s="6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>martes</v>
+        <v>0/1/2020</v>
       </c>
       <c r="H130" s="7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>septiembre</v>
+        <v>0/1/2020</v>
       </c>
       <c r="I130" s="13" t="str">
         <f t="shared" ca="1" si="11"/>
-        <v>septiembre 29</v>
+        <v>0/1/2020</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A131" s="50"/>
-      <c r="B131" s="50"/>
-      <c r="C131" s="50"/>
-      <c r="D131" s="50"/>
-      <c r="E131" s="60"/>
+      <c r="A131" s="48"/>
+      <c r="B131" s="48"/>
+      <c r="C131" s="48"/>
+      <c r="D131" s="48"/>
+      <c r="E131" s="58"/>
       <c r="F131" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>0/1/2020</v>
@@ -6353,11 +6240,11 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A132" s="50"/>
-      <c r="B132" s="50"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="60"/>
+      <c r="A132" s="48"/>
+      <c r="B132" s="48"/>
+      <c r="C132" s="48"/>
+      <c r="D132" s="48"/>
+      <c r="E132" s="58"/>
       <c r="F132" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>0/1/2020</v>
@@ -6376,11 +6263,6 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A133" s="50"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="50"/>
-      <c r="D133" s="50"/>
-      <c r="E133" s="60"/>
       <c r="F133" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>0/1/2020</v>
@@ -6399,11 +6281,6 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A134" s="50"/>
-      <c r="B134" s="50"/>
-      <c r="C134" s="50"/>
-      <c r="D134" s="50"/>
-      <c r="E134" s="60"/>
       <c r="F134" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>0/1/2020</v>
@@ -6422,11 +6299,6 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A135" s="50"/>
-      <c r="B135" s="50"/>
-      <c r="C135" s="50"/>
-      <c r="D135" s="50"/>
-      <c r="E135" s="60"/>
       <c r="F135" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>0/1/2020</v>
@@ -6445,11 +6317,6 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A136" s="50"/>
-      <c r="B136" s="50"/>
-      <c r="C136" s="50"/>
-      <c r="D136" s="50"/>
-      <c r="E136" s="60"/>
       <c r="F136" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>0/1/2020</v>
@@ -6468,11 +6335,6 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A137" s="50"/>
-      <c r="B137" s="50"/>
-      <c r="C137" s="50"/>
-      <c r="D137" s="50"/>
-      <c r="E137" s="60"/>
       <c r="F137" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>0/1/2020</v>
@@ -6491,11 +6353,6 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A138" s="50"/>
-      <c r="B138" s="50"/>
-      <c r="C138" s="50"/>
-      <c r="D138" s="50"/>
-      <c r="E138" s="60"/>
       <c r="F138" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>0/1/2020</v>
@@ -6514,11 +6371,6 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A139" s="50"/>
-      <c r="B139" s="50"/>
-      <c r="C139" s="50"/>
-      <c r="D139" s="50"/>
-      <c r="E139" s="60"/>
       <c r="F139" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>0/1/2020</v>
@@ -6537,11 +6389,6 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A140" s="50"/>
-      <c r="B140" s="50"/>
-      <c r="C140" s="50"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="60"/>
       <c r="F140" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>0/1/2020</v>
@@ -6560,11 +6407,6 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A141" s="50"/>
-      <c r="B141" s="50"/>
-      <c r="C141" s="50"/>
-      <c r="D141" s="50"/>
-      <c r="E141" s="60"/>
       <c r="F141" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
         <v>0/1/2020</v>
@@ -7214,181 +7056,181 @@
     </row>
     <row r="177" spans="6:9" ht="27.75" customHeight="1">
       <c r="F177" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ref="F177:F223" ca="1" si="12">DAY(E177) &amp; "/" &amp;MONTH(E177)&amp;"/"&amp;YEAR(TODAY())</f>
         <v>0/1/2020</v>
       </c>
       <c r="G177" s="6" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ref="G177:G223" ca="1" si="13">TEXT(F177,"dddd")</f>
         <v>0/1/2020</v>
       </c>
       <c r="H177" s="7" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ref="H177:H223" ca="1" si="14">TEXT(F177,"mmmm")</f>
         <v>0/1/2020</v>
       </c>
       <c r="I177" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ref="I177:I223" ca="1" si="15">TEXT(F177,"MMMM"&amp;" "&amp;"DD")</f>
         <v>0/1/2020</v>
       </c>
     </row>
     <row r="178" spans="6:9" ht="27.75" customHeight="1">
       <c r="F178" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0/1/2020</v>
       </c>
       <c r="G178" s="6" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0/1/2020</v>
       </c>
       <c r="H178" s="7" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0/1/2020</v>
       </c>
       <c r="I178" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0/1/2020</v>
       </c>
     </row>
     <row r="179" spans="6:9" ht="27.75" customHeight="1">
       <c r="F179" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0/1/2020</v>
       </c>
       <c r="G179" s="6" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0/1/2020</v>
       </c>
       <c r="H179" s="7" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0/1/2020</v>
       </c>
       <c r="I179" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0/1/2020</v>
       </c>
     </row>
     <row r="180" spans="6:9" ht="27.75" customHeight="1">
       <c r="F180" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0/1/2020</v>
       </c>
       <c r="G180" s="6" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0/1/2020</v>
       </c>
       <c r="H180" s="7" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0/1/2020</v>
       </c>
       <c r="I180" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0/1/2020</v>
       </c>
     </row>
     <row r="181" spans="6:9" ht="27.75" customHeight="1">
       <c r="F181" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0/1/2020</v>
       </c>
       <c r="G181" s="6" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0/1/2020</v>
       </c>
       <c r="H181" s="7" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0/1/2020</v>
       </c>
       <c r="I181" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0/1/2020</v>
       </c>
     </row>
     <row r="182" spans="6:9" ht="27.75" customHeight="1">
       <c r="F182" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0/1/2020</v>
       </c>
       <c r="G182" s="6" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0/1/2020</v>
       </c>
       <c r="H182" s="7" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0/1/2020</v>
       </c>
       <c r="I182" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0/1/2020</v>
       </c>
     </row>
     <row r="183" spans="6:9" ht="27.75" customHeight="1">
       <c r="F183" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0/1/2020</v>
       </c>
       <c r="G183" s="6" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0/1/2020</v>
       </c>
       <c r="H183" s="7" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0/1/2020</v>
       </c>
       <c r="I183" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0/1/2020</v>
       </c>
     </row>
     <row r="184" spans="6:9" ht="27.75" customHeight="1">
       <c r="F184" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0/1/2020</v>
       </c>
       <c r="G184" s="6" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0/1/2020</v>
       </c>
       <c r="H184" s="7" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0/1/2020</v>
       </c>
       <c r="I184" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0/1/2020</v>
       </c>
     </row>
     <row r="185" spans="6:9" ht="27.75" customHeight="1">
       <c r="F185" s="2" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>0/1/2020</v>
       </c>
       <c r="G185" s="6" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="13"/>
         <v>0/1/2020</v>
       </c>
       <c r="H185" s="7" t="str">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="14"/>
         <v>0/1/2020</v>
       </c>
       <c r="I185" s="13" t="str">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0/1/2020</v>
       </c>
     </row>
     <row r="186" spans="6:9" ht="27.75" customHeight="1">
       <c r="F186" s="2" t="str">
-        <f t="shared" ref="F186:F232" ca="1" si="12">DAY(E186) &amp; "/" &amp;MONTH(E186)&amp;"/"&amp;YEAR(TODAY())</f>
+        <f t="shared" ca="1" si="12"/>
         <v>0/1/2020</v>
       </c>
       <c r="G186" s="6" t="str">
-        <f t="shared" ref="G186:G232" ca="1" si="13">TEXT(F186,"dddd")</f>
+        <f t="shared" ca="1" si="13"/>
         <v>0/1/2020</v>
       </c>
       <c r="H186" s="7" t="str">
-        <f t="shared" ref="H186:H232" ca="1" si="14">TEXT(F186,"mmmm")</f>
+        <f t="shared" ca="1" si="14"/>
         <v>0/1/2020</v>
       </c>
       <c r="I186" s="13" t="str">
-        <f t="shared" ref="I186:I232" ca="1" si="15">TEXT(F186,"MMMM"&amp;" "&amp;"DD")</f>
+        <f t="shared" ca="1" si="15"/>
         <v>0/1/2020</v>
       </c>
     </row>
@@ -8054,168 +7896,6 @@
         <v>0/1/2020</v>
       </c>
       <c r="I223" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>0/1/2020</v>
-      </c>
-    </row>
-    <row r="224" spans="6:9" ht="27.75" customHeight="1">
-      <c r="F224" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="G224" s="6" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="H224" s="7" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="I224" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>0/1/2020</v>
-      </c>
-    </row>
-    <row r="225" spans="6:9" ht="27.75" customHeight="1">
-      <c r="F225" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="G225" s="6" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="H225" s="7" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="I225" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>0/1/2020</v>
-      </c>
-    </row>
-    <row r="226" spans="6:9" ht="27.75" customHeight="1">
-      <c r="F226" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="G226" s="6" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="H226" s="7" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="I226" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>0/1/2020</v>
-      </c>
-    </row>
-    <row r="227" spans="6:9" ht="27.75" customHeight="1">
-      <c r="F227" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="G227" s="6" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="H227" s="7" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="I227" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>0/1/2020</v>
-      </c>
-    </row>
-    <row r="228" spans="6:9" ht="27.75" customHeight="1">
-      <c r="F228" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="G228" s="6" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="H228" s="7" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="I228" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>0/1/2020</v>
-      </c>
-    </row>
-    <row r="229" spans="6:9" ht="27.75" customHeight="1">
-      <c r="F229" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="G229" s="6" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="H229" s="7" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="I229" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>0/1/2020</v>
-      </c>
-    </row>
-    <row r="230" spans="6:9" ht="27.75" customHeight="1">
-      <c r="F230" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="G230" s="6" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="H230" s="7" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="I230" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>0/1/2020</v>
-      </c>
-    </row>
-    <row r="231" spans="6:9" ht="27.75" customHeight="1">
-      <c r="F231" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="G231" s="6" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="H231" s="7" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="I231" s="13" t="str">
-        <f t="shared" ca="1" si="15"/>
-        <v>0/1/2020</v>
-      </c>
-    </row>
-    <row r="232" spans="6:9" ht="27.75" customHeight="1">
-      <c r="F232" s="2" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="G232" s="6" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="H232" s="7" t="str">
-        <f t="shared" ca="1" si="14"/>
-        <v>0/1/2020</v>
-      </c>
-      <c r="I232" s="13" t="str">
         <f t="shared" ca="1" si="15"/>
         <v>0/1/2020</v>
       </c>
@@ -8232,7 +7912,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8251,7 +7931,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" ht="36.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -8263,13 +7943,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8853,7 +8533,7 @@
   <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -8872,7 +8552,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" ht="36.75" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -8884,16 +8564,17 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:7">
+      <c r="C2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
     </row>
